--- a/txsb_top_timing_bdlmax_postlb_tsmc2ff_meas.xlsx
+++ b/txsb_top_timing_bdlmax_postlb_tsmc2ff_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="151">
   <si>
     <t>Process</t>
   </si>
@@ -358,6 +358,9 @@
     <t>tsmc2ff (6)</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>tsmc2ff (7)</t>
   </si>
   <si>
@@ -440,9 +443,6 @@
   </si>
   <si>
     <t>Min</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>Max</t>
@@ -491,20 +491,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000 "/>
+      <color rgb="FFFFFFFF "/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF "/>
+      <color rgb="FF000000 "/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -513,19 +513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD6FFF5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF0094D1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9133"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,7 +525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE8B8"/>
+        <fgColor rgb="FFD6FFF5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,14 +542,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1133,154 +1119,154 @@
         <v>82</v>
       </c>
       <c r="T2">
-        <v>213.853</v>
+        <v>189.704</v>
       </c>
       <c r="U2">
-        <v>198.395</v>
+        <v>180.66</v>
       </c>
       <c r="V2">
-        <v>206.124</v>
-      </c>
-      <c r="W2" s="2">
-        <v>48.4568</v>
-      </c>
-      <c r="X2" s="3">
-        <v>16.8986</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>16.7082</v>
+        <v>185.182</v>
+      </c>
+      <c r="W2">
+        <v>49.0957</v>
+      </c>
+      <c r="X2" s="2">
+        <v>16.8508</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>16.6778</v>
       </c>
       <c r="Z2">
-        <v>35.506</v>
+        <v>35.6066</v>
       </c>
       <c r="AA2">
-        <v>35.9105</v>
+        <v>35.976</v>
       </c>
       <c r="AB2">
-        <v>154.036</v>
+        <v>134.328</v>
       </c>
       <c r="AC2">
-        <v>148.707</v>
+        <v>133.52</v>
       </c>
       <c r="AD2">
-        <v>49.4688</v>
-      </c>
-      <c r="AE2" s="4">
-        <v>234.925</v>
-      </c>
-      <c r="AF2" s="4">
-        <v>234.1</v>
+        <v>49.9191</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>14.8689</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>14.6027</v>
       </c>
       <c r="AG2">
-        <v>1.9155</v>
+        <v>30.2644</v>
       </c>
       <c r="AH2">
-        <v>1.92226</v>
+        <v>30.8163</v>
       </c>
       <c r="AI2">
-        <v>-2704.84</v>
+        <v>134.713</v>
       </c>
       <c r="AJ2">
-        <v>-3173.14</v>
-      </c>
-      <c r="AK2" s="4">
-        <v>73.2693</v>
-      </c>
-      <c r="AL2" s="4">
-        <v>235.609</v>
-      </c>
-      <c r="AM2" s="4">
-        <v>234.749</v>
+        <v>133.905</v>
+      </c>
+      <c r="AK2">
+        <v>49.9191</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>14.8776</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>14.6113</v>
       </c>
       <c r="AN2">
-        <v>1.90994</v>
+        <v>30.2468</v>
       </c>
       <c r="AO2">
-        <v>1.91694</v>
+        <v>30.798</v>
       </c>
       <c r="AP2">
-        <v>60.05970000000001</v>
+        <v>60.06420000000001</v>
       </c>
       <c r="AQ2">
-        <v>60.45640000000001</v>
+        <v>60.4548</v>
       </c>
       <c r="AR2">
-        <v>50.0396</v>
-      </c>
-      <c r="AS2" s="3">
-        <v>4.40616</v>
-      </c>
-      <c r="AT2" s="3">
-        <v>4.22859</v>
+        <v>50.039</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>4.40562</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>4.2275</v>
       </c>
       <c r="AU2">
-        <v>102.13</v>
+        <v>102.142</v>
       </c>
       <c r="AV2">
-        <v>106.418</v>
+        <v>106.446</v>
       </c>
       <c r="AW2">
-        <v>69.7647</v>
+        <v>69.76860000000001</v>
       </c>
       <c r="AX2">
-        <v>70.0218</v>
+        <v>70.0211</v>
       </c>
       <c r="AY2">
-        <v>50.0256</v>
-      </c>
-      <c r="AZ2" s="3">
-        <v>8.13048</v>
-      </c>
-      <c r="BA2" s="3">
-        <v>6.47547</v>
+        <v>50.0252</v>
+      </c>
+      <c r="AZ2" s="2">
+        <v>8.13129</v>
+      </c>
+      <c r="BA2" s="2">
+        <v>6.4747</v>
       </c>
       <c r="BB2">
-        <v>55.3473</v>
+        <v>55.3418</v>
       </c>
       <c r="BC2">
-        <v>69.49299999999999</v>
-      </c>
-      <c r="BD2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ2" s="5" t="s">
+        <v>69.5013</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK2">
-        <v>96.9838</v>
+        <v>96.9898</v>
       </c>
       <c r="BL2">
-        <v>98.5425</v>
+        <v>98.5424</v>
       </c>
       <c r="BM2">
-        <v>50.1557</v>
-      </c>
-      <c r="BN2" s="3">
-        <v>15.5826</v>
-      </c>
-      <c r="BO2" s="3">
-        <v>16.4141</v>
+        <v>50.1554</v>
+      </c>
+      <c r="BN2" s="2">
+        <v>15.5861</v>
+      </c>
+      <c r="BO2" s="2">
+        <v>16.4139</v>
       </c>
       <c r="BP2">
-        <v>28.8783</v>
+        <v>28.8719</v>
       </c>
       <c r="BQ2">
-        <v>27.4154</v>
+        <v>27.4159</v>
       </c>
     </row>
     <row r="3" spans="1:69">
@@ -1342,154 +1328,154 @@
         <v>82</v>
       </c>
       <c r="T3">
-        <v>246.195</v>
+        <v>210.004</v>
       </c>
       <c r="U3">
-        <v>217.697</v>
+        <v>197.67</v>
       </c>
       <c r="V3">
-        <v>231.946</v>
-      </c>
-      <c r="W3" s="2">
-        <v>47.1422</v>
-      </c>
-      <c r="X3" s="3">
-        <v>19.7605</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>19.6591</v>
+        <v>203.837</v>
+      </c>
+      <c r="W3">
+        <v>48.7655</v>
+      </c>
+      <c r="X3" s="2">
+        <v>19.6885</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>19.6253</v>
       </c>
       <c r="Z3">
-        <v>31.902</v>
+        <v>32.0186</v>
       </c>
       <c r="AA3">
-        <v>32.0665</v>
+        <v>32.1218</v>
       </c>
       <c r="AB3">
-        <v>-2649.44</v>
+        <v>149.497</v>
       </c>
       <c r="AC3">
-        <v>-2824.94</v>
-      </c>
-      <c r="AD3" s="3">
-        <v>37.1214</v>
-      </c>
-      <c r="AE3" s="4">
-        <v>238.37</v>
-      </c>
-      <c r="AF3" s="4">
-        <v>237.453</v>
+        <v>145.915</v>
+      </c>
+      <c r="AD3">
+        <v>49.6419</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>16.4019</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>16.1536</v>
       </c>
       <c r="AG3">
-        <v>2.0766</v>
+        <v>30.1795</v>
       </c>
       <c r="AH3">
-        <v>2.08462</v>
+        <v>30.6433</v>
       </c>
       <c r="AI3">
-        <v>-644.134</v>
+        <v>149.881</v>
       </c>
       <c r="AJ3">
-        <v>-648.4680000000001</v>
+        <v>146.3</v>
       </c>
       <c r="AK3">
-        <v>49.5674</v>
-      </c>
-      <c r="AL3" s="4">
-        <v>239.127</v>
-      </c>
-      <c r="AM3" s="4">
-        <v>238.177</v>
+        <v>49.642</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>16.4094</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>16.1615</v>
       </c>
       <c r="AN3">
-        <v>2.07003</v>
+        <v>30.1656</v>
       </c>
       <c r="AO3">
-        <v>2.07829</v>
+        <v>30.6283</v>
       </c>
       <c r="AP3">
-        <v>64.8997</v>
+        <v>64.9024</v>
       </c>
       <c r="AQ3">
-        <v>65.38200000000001</v>
+        <v>65.38249999999999</v>
       </c>
       <c r="AR3">
-        <v>50.0482</v>
-      </c>
-      <c r="AS3" s="3">
-        <v>4.908180000000001</v>
-      </c>
-      <c r="AT3" s="3">
-        <v>4.79328</v>
+        <v>50.048</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>4.907480000000001</v>
+      </c>
+      <c r="AT3" s="2">
+        <v>4.79221</v>
       </c>
       <c r="AU3">
-        <v>96.32899999999999</v>
+        <v>96.34269999999999</v>
       </c>
       <c r="AV3">
-        <v>98.63809999999999</v>
+        <v>98.66</v>
       </c>
       <c r="AW3">
-        <v>76.19529999999999</v>
+        <v>76.1974</v>
       </c>
       <c r="AX3">
-        <v>76.43480000000001</v>
+        <v>76.4336</v>
       </c>
       <c r="AY3">
-        <v>50.024</v>
-      </c>
-      <c r="AZ3" s="3">
-        <v>9.551959999999999</v>
-      </c>
-      <c r="BA3" s="3">
-        <v>7.48484</v>
+        <v>50.0236</v>
+      </c>
+      <c r="AZ3" s="2">
+        <v>9.55259</v>
+      </c>
+      <c r="BA3" s="2">
+        <v>7.48463</v>
       </c>
       <c r="BB3">
-        <v>49.4977</v>
+        <v>49.4944</v>
       </c>
       <c r="BC3">
-        <v>63.1677</v>
-      </c>
-      <c r="BD3" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE3" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF3" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG3" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH3" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI3" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ3" s="5" t="s">
+        <v>63.1695</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ3" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK3">
-        <v>107.42</v>
+        <v>107.423</v>
       </c>
       <c r="BL3">
-        <v>107.444</v>
+        <v>107.441</v>
       </c>
       <c r="BM3">
-        <v>50.0026</v>
-      </c>
-      <c r="BN3" s="3">
-        <v>22.3971</v>
-      </c>
-      <c r="BO3" s="3">
-        <v>19.4979</v>
+        <v>50.0018</v>
+      </c>
+      <c r="BN3" s="2">
+        <v>22.4006</v>
+      </c>
+      <c r="BO3" s="2">
+        <v>19.4973</v>
       </c>
       <c r="BP3">
-        <v>22.101</v>
+        <v>22.0976</v>
       </c>
       <c r="BQ3">
-        <v>25.3873</v>
+        <v>25.3881</v>
       </c>
     </row>
     <row r="4" spans="1:69">
@@ -1551,154 +1537,154 @@
         <v>82</v>
       </c>
       <c r="T4">
-        <v>232.699</v>
+        <v>204.47</v>
       </c>
       <c r="U4">
-        <v>214.024</v>
+        <v>193.469</v>
       </c>
       <c r="V4">
-        <v>223.362</v>
-      </c>
-      <c r="W4" s="2">
-        <v>48.1334</v>
-      </c>
-      <c r="X4" s="3">
-        <v>18.6546</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>18.1615</v>
+        <v>198.969</v>
+      </c>
+      <c r="W4">
+        <v>48.9003</v>
+      </c>
+      <c r="X4" s="2">
+        <v>18.6018</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>18.1322</v>
       </c>
       <c r="Z4">
-        <v>33.7933</v>
+        <v>33.8891</v>
       </c>
       <c r="AA4">
-        <v>34.7109</v>
+        <v>34.7669</v>
       </c>
       <c r="AB4">
-        <v>168.262</v>
+        <v>144.22</v>
       </c>
       <c r="AC4">
-        <v>156.741</v>
+        <v>141.72</v>
       </c>
       <c r="AD4">
-        <v>48.8509</v>
-      </c>
-      <c r="AE4" s="4">
-        <v>235.391</v>
-      </c>
-      <c r="AF4" s="4">
-        <v>233.805</v>
+        <v>49.7499</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>15.1354</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>14.5771</v>
       </c>
       <c r="AG4">
-        <v>2.10288</v>
+        <v>32.7049</v>
       </c>
       <c r="AH4">
-        <v>2.11715</v>
+        <v>33.9573</v>
       </c>
       <c r="AI4">
-        <v>-2651.35</v>
+        <v>144.604</v>
       </c>
       <c r="AJ4">
-        <v>-2780.15</v>
-      </c>
-      <c r="AK4" s="4">
-        <v>94.41889999999999</v>
-      </c>
-      <c r="AL4" s="4">
-        <v>236.108</v>
-      </c>
-      <c r="AM4" s="4">
-        <v>234.469</v>
+        <v>142.104</v>
+      </c>
+      <c r="AK4">
+        <v>49.7499</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>15.1444</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>14.5863</v>
       </c>
       <c r="AN4">
-        <v>2.0965</v>
+        <v>32.6854</v>
       </c>
       <c r="AO4">
-        <v>2.11115</v>
+        <v>33.9359</v>
       </c>
       <c r="AP4">
-        <v>61.6491</v>
+        <v>61.6622</v>
       </c>
       <c r="AQ4">
-        <v>62.03020000000001</v>
+        <v>62.0413</v>
       </c>
       <c r="AR4">
-        <v>50.0381</v>
-      </c>
-      <c r="AS4" s="3">
-        <v>4.0887</v>
-      </c>
-      <c r="AT4" s="3">
-        <v>3.96648</v>
+        <v>50.0379</v>
+      </c>
+      <c r="AS4" s="2">
+        <v>4.089169999999999</v>
+      </c>
+      <c r="AT4" s="2">
+        <v>3.96839</v>
       </c>
       <c r="AU4">
-        <v>115.636</v>
+        <v>115.623</v>
       </c>
       <c r="AV4">
-        <v>119.199</v>
+        <v>119.141</v>
       </c>
       <c r="AW4">
-        <v>72.7949</v>
+        <v>72.8074</v>
       </c>
       <c r="AX4">
-        <v>72.95009999999999</v>
+        <v>72.959</v>
       </c>
       <c r="AY4">
-        <v>50.0155</v>
-      </c>
-      <c r="AZ4" s="3">
-        <v>8.938550000000001</v>
-      </c>
-      <c r="BA4" s="3">
-        <v>6.85317</v>
+        <v>50.0151</v>
+      </c>
+      <c r="AZ4" s="2">
+        <v>8.93868</v>
+      </c>
+      <c r="BA4" s="2">
+        <v>6.8532</v>
       </c>
       <c r="BB4">
-        <v>52.8945</v>
+        <v>52.8937</v>
       </c>
       <c r="BC4">
-        <v>68.98999999999999</v>
-      </c>
-      <c r="BD4" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE4" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF4" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG4" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH4" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI4" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ4" s="5" t="s">
+        <v>68.9897</v>
+      </c>
+      <c r="BD4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ4" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK4">
-        <v>103.915</v>
+        <v>103.927</v>
       </c>
       <c r="BL4">
-        <v>104.565</v>
+        <v>104.575</v>
       </c>
       <c r="BM4">
-        <v>50.065</v>
-      </c>
-      <c r="BN4" s="3">
-        <v>20.8757</v>
-      </c>
-      <c r="BO4" s="3">
-        <v>17.4959</v>
+        <v>50.0646</v>
+      </c>
+      <c r="BN4" s="2">
+        <v>20.875</v>
+      </c>
+      <c r="BO4" s="2">
+        <v>17.4958</v>
       </c>
       <c r="BP4">
-        <v>23.7118</v>
+        <v>23.7126</v>
       </c>
       <c r="BQ4">
-        <v>28.2923</v>
+        <v>28.2924</v>
       </c>
     </row>
     <row r="5" spans="1:69">
@@ -1759,155 +1745,155 @@
       <c r="S5" t="s">
         <v>82</v>
       </c>
-      <c r="T5" s="4">
-        <v>457.506</v>
-      </c>
-      <c r="U5" s="4">
-        <v>412.295</v>
-      </c>
-      <c r="V5" s="4">
-        <v>434.901</v>
-      </c>
-      <c r="W5" s="3">
-        <v>45.5165</v>
-      </c>
-      <c r="X5" s="3">
-        <v>23.3491</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>23.5524</v>
+      <c r="T5">
+        <v>250.719</v>
+      </c>
+      <c r="U5">
+        <v>239.308</v>
+      </c>
+      <c r="V5">
+        <v>245.013</v>
+      </c>
+      <c r="W5">
+        <v>48.8587</v>
+      </c>
+      <c r="X5" s="2">
+        <v>23.2824</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>23.5076</v>
       </c>
       <c r="Z5">
-        <v>23.1273</v>
+        <v>23.1934</v>
       </c>
       <c r="AA5">
-        <v>22.9276</v>
-      </c>
-      <c r="AB5" s="4">
-        <v>382.089</v>
-      </c>
-      <c r="AC5" s="4">
-        <v>380.779</v>
+        <v>22.9713</v>
+      </c>
+      <c r="AB5">
+        <v>174.87</v>
+      </c>
+      <c r="AC5">
+        <v>174.049</v>
       </c>
       <c r="AD5">
-        <v>49.8687</v>
-      </c>
-      <c r="AE5" s="4">
-        <v>247.861</v>
-      </c>
-      <c r="AF5" s="4">
-        <v>246.885</v>
+        <v>49.9176</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>19.5391</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>19.4487</v>
       </c>
       <c r="AG5">
-        <v>1.63398</v>
+        <v>20.7276</v>
       </c>
       <c r="AH5">
-        <v>1.64044</v>
-      </c>
-      <c r="AI5" s="4">
-        <v>384.438</v>
-      </c>
-      <c r="AJ5" s="4">
-        <v>383.197</v>
+        <v>20.824</v>
+      </c>
+      <c r="AI5">
+        <v>175.254</v>
+      </c>
+      <c r="AJ5">
+        <v>174.433</v>
       </c>
       <c r="AK5">
-        <v>49.8756</v>
-      </c>
-      <c r="AL5" s="4">
-        <v>249.435</v>
-      </c>
-      <c r="AM5" s="4">
-        <v>248.325</v>
+        <v>49.9176</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>19.5454</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>19.4544</v>
       </c>
       <c r="AN5">
-        <v>1.62367</v>
+        <v>20.7209</v>
       </c>
       <c r="AO5">
-        <v>1.63093</v>
+        <v>20.8179</v>
       </c>
       <c r="AP5">
-        <v>72.8715</v>
+        <v>72.8789</v>
       </c>
       <c r="AQ5">
-        <v>73.3095</v>
+        <v>73.3121</v>
       </c>
       <c r="AR5">
-        <v>50.0438</v>
-      </c>
-      <c r="AS5" s="3">
-        <v>5.31582</v>
-      </c>
-      <c r="AT5" s="3">
-        <v>5.23326</v>
+        <v>50.0433</v>
+      </c>
+      <c r="AS5" s="2">
+        <v>5.31464</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>5.23378</v>
       </c>
       <c r="AU5">
-        <v>76.18770000000001</v>
+        <v>76.2046</v>
       </c>
       <c r="AV5">
-        <v>77.3897</v>
+        <v>77.3819</v>
       </c>
       <c r="AW5">
-        <v>86.8156</v>
+        <v>86.8216</v>
       </c>
       <c r="AX5">
-        <v>86.9605</v>
+        <v>86.9623</v>
       </c>
       <c r="AY5">
-        <v>50.0144</v>
-      </c>
-      <c r="AZ5" s="3">
-        <v>10.8618</v>
-      </c>
-      <c r="BA5" s="3">
+        <v>50.0141</v>
+      </c>
+      <c r="AZ5" s="2">
+        <v>10.8616</v>
+      </c>
+      <c r="BA5" s="2">
         <v>8.85106</v>
       </c>
       <c r="BB5">
-        <v>37.2866</v>
+        <v>37.2874</v>
       </c>
       <c r="BC5">
-        <v>45.7573</v>
-      </c>
-      <c r="BD5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ5" s="5" t="s">
+        <v>45.7572</v>
+      </c>
+      <c r="BD5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ5" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK5">
-        <v>124.486</v>
+        <v>124.487</v>
       </c>
       <c r="BL5">
         <v>126.458</v>
       </c>
       <c r="BM5">
-        <v>50.1972</v>
-      </c>
-      <c r="BN5" s="3">
-        <v>21.3986</v>
-      </c>
-      <c r="BO5" s="3">
-        <v>22.4526</v>
+        <v>50.1968</v>
+      </c>
+      <c r="BN5" s="2">
+        <v>21.4011</v>
+      </c>
+      <c r="BO5" s="2">
+        <v>22.4501</v>
       </c>
       <c r="BP5">
-        <v>18.9265</v>
+        <v>18.9242</v>
       </c>
       <c r="BQ5">
-        <v>18.038</v>
+        <v>18.04</v>
       </c>
     </row>
     <row r="6" spans="1:69">
@@ -1968,155 +1954,155 @@
       <c r="S6" t="s">
         <v>82</v>
       </c>
-      <c r="T6" s="4">
-        <v>467.744</v>
-      </c>
-      <c r="U6" s="4">
-        <v>456.595</v>
-      </c>
-      <c r="V6" s="4">
-        <v>462.169</v>
+      <c r="T6">
+        <v>259.058</v>
+      </c>
+      <c r="U6">
+        <v>247.877</v>
+      </c>
+      <c r="V6">
+        <v>253.467</v>
       </c>
       <c r="W6">
-        <v>48.8807</v>
-      </c>
-      <c r="X6" s="3">
-        <v>22.8978</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>22.4999</v>
+        <v>48.8821</v>
+      </c>
+      <c r="X6" s="2">
+        <v>22.8762</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>22.4799</v>
       </c>
       <c r="Z6">
-        <v>23.5831</v>
+        <v>23.6053</v>
       </c>
       <c r="AA6">
-        <v>24.0001</v>
-      </c>
-      <c r="AB6" s="4">
-        <v>386.451</v>
-      </c>
-      <c r="AC6" s="4">
-        <v>384.705</v>
+        <v>24.0215</v>
+      </c>
+      <c r="AB6">
+        <v>178.844</v>
+      </c>
+      <c r="AC6">
+        <v>178.623</v>
       </c>
       <c r="AD6">
-        <v>49.8253</v>
-      </c>
-      <c r="AE6" s="4">
-        <v>246.607</v>
-      </c>
-      <c r="AF6" s="4">
-        <v>243.937</v>
+        <v>49.978</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>18.8</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>18.3041</v>
       </c>
       <c r="AG6">
-        <v>1.64229</v>
+        <v>21.5425</v>
       </c>
       <c r="AH6">
-        <v>1.66026</v>
-      </c>
-      <c r="AI6" s="4">
-        <v>388.714</v>
-      </c>
-      <c r="AJ6" s="4">
-        <v>387.34</v>
+        <v>22.1262</v>
+      </c>
+      <c r="AI6">
+        <v>179.227</v>
+      </c>
+      <c r="AJ6">
+        <v>179.006</v>
       </c>
       <c r="AK6">
-        <v>49.8625</v>
-      </c>
-      <c r="AL6" s="4">
-        <v>248.274</v>
-      </c>
-      <c r="AM6" s="4">
-        <v>245.223</v>
+        <v>49.978</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>18.8064</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>18.3106</v>
       </c>
       <c r="AN6">
-        <v>1.63126</v>
+        <v>21.5352</v>
       </c>
       <c r="AO6">
-        <v>1.65156</v>
+        <v>22.1183</v>
       </c>
       <c r="AP6">
-        <v>72.7769</v>
+        <v>72.797</v>
       </c>
       <c r="AQ6">
-        <v>73.1253</v>
+        <v>73.1448</v>
       </c>
       <c r="AR6">
         <v>50.0349</v>
       </c>
-      <c r="AS6" s="3">
-        <v>4.78983</v>
-      </c>
-      <c r="AT6" s="3">
-        <v>4.65685</v>
+      <c r="AS6" s="2">
+        <v>4.78884</v>
+      </c>
+      <c r="AT6" s="2">
+        <v>4.657900000000001</v>
       </c>
       <c r="AU6">
-        <v>84.55410000000001</v>
+        <v>84.57170000000001</v>
       </c>
       <c r="AV6">
-        <v>86.9687</v>
+        <v>86.9491</v>
       </c>
       <c r="AW6">
-        <v>87.35350000000001</v>
+        <v>87.37049999999999</v>
       </c>
       <c r="AX6">
-        <v>87.3104</v>
+        <v>87.32640000000001</v>
       </c>
       <c r="AY6">
-        <v>49.9958</v>
-      </c>
-      <c r="AZ6" s="3">
-        <v>10.4201</v>
-      </c>
-      <c r="BA6" s="3">
-        <v>8.36501</v>
+        <v>49.9956</v>
+      </c>
+      <c r="AZ6" s="2">
+        <v>10.4212</v>
+      </c>
+      <c r="BA6" s="2">
+        <v>8.36604</v>
       </c>
       <c r="BB6">
-        <v>38.8674</v>
+        <v>38.8632</v>
       </c>
       <c r="BC6">
-        <v>48.4159</v>
-      </c>
-      <c r="BD6" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE6" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF6" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG6" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH6" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI6" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ6" s="5" t="s">
+        <v>48.41</v>
+      </c>
+      <c r="BD6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ6" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK6">
-        <v>127.382</v>
+        <v>127.397</v>
       </c>
       <c r="BL6">
-        <v>129.6</v>
+        <v>129.615</v>
       </c>
       <c r="BM6">
-        <v>50.222</v>
-      </c>
-      <c r="BN6" s="3">
-        <v>20.7476</v>
-      </c>
-      <c r="BO6" s="3">
-        <v>20.1923</v>
+        <v>50.2218</v>
+      </c>
+      <c r="BN6" s="2">
+        <v>20.7444</v>
+      </c>
+      <c r="BO6" s="2">
+        <v>20.1816</v>
       </c>
       <c r="BP6">
-        <v>19.5203</v>
+        <v>19.5233</v>
       </c>
       <c r="BQ6">
-        <v>20.0571</v>
+        <v>20.0678</v>
       </c>
     </row>
     <row r="7" spans="1:69">
@@ -2178,154 +2164,154 @@
         <v>112</v>
       </c>
       <c r="T7">
-        <v>180.093</v>
+        <v>166.748</v>
       </c>
       <c r="U7">
-        <v>162.116</v>
+        <v>153.917</v>
       </c>
       <c r="V7">
-        <v>171.104</v>
-      </c>
-      <c r="W7" s="2">
-        <v>48.2034</v>
-      </c>
-      <c r="X7" s="3">
-        <v>14.7361</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>14.8049</v>
+        <v>160.332</v>
+      </c>
+      <c r="W7">
+        <v>48.7171</v>
+      </c>
+      <c r="X7" s="2">
+        <v>14.6935</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>14.7745</v>
       </c>
       <c r="Z7">
-        <v>42.7794</v>
+        <v>42.9033</v>
       </c>
       <c r="AA7">
-        <v>42.5806</v>
+        <v>42.6681</v>
       </c>
       <c r="AB7">
-        <v>130.016</v>
+        <v>120.886</v>
       </c>
       <c r="AC7">
-        <v>124.342</v>
+        <v>116.114</v>
       </c>
       <c r="AD7">
-        <v>49.433</v>
-      </c>
-      <c r="AE7" s="4">
-        <v>230.514</v>
-      </c>
-      <c r="AF7" s="4">
-        <v>230.09</v>
+        <v>49.5229</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>12.9227</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>12.7641</v>
       </c>
       <c r="AG7">
-        <v>2.14737</v>
+        <v>38.3047</v>
       </c>
       <c r="AH7">
-        <v>2.15134</v>
+        <v>38.7805</v>
       </c>
       <c r="AI7">
-        <v>136.038</v>
+        <v>121.271</v>
       </c>
       <c r="AJ7">
-        <v>129.613</v>
+        <v>116.501</v>
       </c>
       <c r="AK7">
-        <v>49.3586</v>
-      </c>
-      <c r="AL7" s="4">
-        <v>231.115</v>
-      </c>
-      <c r="AM7" s="4">
-        <v>230.688</v>
+        <v>49.523</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>12.9338</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>12.7754</v>
       </c>
       <c r="AN7">
-        <v>2.14179</v>
+        <v>38.2719</v>
       </c>
       <c r="AO7">
-        <v>2.14575</v>
+        <v>38.7463</v>
       </c>
       <c r="AP7">
-        <v>55.30820000000001</v>
+        <v>55.3151</v>
       </c>
       <c r="AQ7">
-        <v>55.8546</v>
+        <v>55.8607</v>
       </c>
       <c r="AR7">
         <v>50.0546</v>
       </c>
-      <c r="AS7" s="3">
-        <v>5.564760000000001</v>
-      </c>
-      <c r="AT7" s="3">
-        <v>5.353890000000001</v>
+      <c r="AS7" s="2">
+        <v>5.563730000000001</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>5.354109999999999</v>
       </c>
       <c r="AU7">
-        <v>84.9632</v>
+        <v>84.9789</v>
       </c>
       <c r="AV7">
-        <v>88.3096</v>
+        <v>88.306</v>
       </c>
       <c r="AW7">
-        <v>63.6194</v>
+        <v>63.6265</v>
       </c>
       <c r="AX7">
-        <v>63.83050000000001</v>
+        <v>63.8377</v>
       </c>
       <c r="AY7">
         <v>50.0211</v>
       </c>
-      <c r="AZ7" s="3">
-        <v>7.54219</v>
-      </c>
-      <c r="BA7" s="3">
-        <v>5.94539</v>
+      <c r="AZ7" s="2">
+        <v>7.541340000000001</v>
+      </c>
+      <c r="BA7" s="2">
+        <v>5.9462</v>
       </c>
       <c r="BB7">
-        <v>62.6874</v>
+        <v>62.6945</v>
       </c>
       <c r="BC7">
-        <v>79.52379999999999</v>
-      </c>
-      <c r="BD7" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE7" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF7" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG7" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH7" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI7" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ7" s="5" t="s">
+        <v>79.5129</v>
+      </c>
+      <c r="BD7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ7" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK7">
-        <v>87.75069999999999</v>
+        <v>87.75709999999999</v>
       </c>
       <c r="BL7">
-        <v>86.13390000000001</v>
+        <v>86.14110000000001</v>
       </c>
       <c r="BM7">
-        <v>49.8384</v>
-      </c>
-      <c r="BN7" s="3">
-        <v>16.9892</v>
-      </c>
-      <c r="BO7" s="3">
-        <v>15.2791</v>
+        <v>49.8385</v>
+      </c>
+      <c r="BN7" s="2">
+        <v>16.9872</v>
+      </c>
+      <c r="BO7" s="2">
+        <v>15.2764</v>
       </c>
       <c r="BP7">
-        <v>29.1362</v>
+        <v>29.1397</v>
       </c>
       <c r="BQ7">
-        <v>32.3973</v>
+        <v>32.4029</v>
       </c>
     </row>
     <row r="8" spans="1:69">
@@ -2386,160 +2372,160 @@
       <c r="S8" t="s">
         <v>112</v>
       </c>
-      <c r="T8">
-        <v>163.623</v>
-      </c>
-      <c r="U8">
-        <v>151.744</v>
-      </c>
-      <c r="V8">
-        <v>157.684</v>
-      </c>
-      <c r="W8">
-        <v>48.8155</v>
-      </c>
-      <c r="X8" s="3">
-        <v>13.3605</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>13.181</v>
-      </c>
-      <c r="Z8">
-        <v>47.184</v>
-      </c>
-      <c r="AA8">
-        <v>47.8265</v>
-      </c>
-      <c r="AB8">
-        <v>117.265</v>
-      </c>
-      <c r="AC8">
-        <v>113.849</v>
-      </c>
-      <c r="AD8">
-        <v>49.6588</v>
-      </c>
-      <c r="AE8" s="4">
-        <v>227.627</v>
-      </c>
-      <c r="AF8" s="4">
-        <v>226.993</v>
-      </c>
-      <c r="AG8">
-        <v>2.17461</v>
-      </c>
-      <c r="AH8">
-        <v>2.18068</v>
-      </c>
-      <c r="AI8">
-        <v>120.92</v>
-      </c>
-      <c r="AJ8">
-        <v>117.079</v>
-      </c>
-      <c r="AK8">
-        <v>49.6166</v>
-      </c>
-      <c r="AL8" s="4">
-        <v>228.304</v>
-      </c>
-      <c r="AM8" s="4">
-        <v>227.684</v>
-      </c>
-      <c r="AN8">
-        <v>2.16816</v>
-      </c>
-      <c r="AO8">
-        <v>2.17407</v>
-      </c>
-      <c r="AP8">
-        <v>50.6089</v>
-      </c>
-      <c r="AQ8">
-        <v>51.0594</v>
-      </c>
-      <c r="AR8">
-        <v>50.0452</v>
-      </c>
-      <c r="AS8" s="3">
-        <v>4.01583</v>
-      </c>
-      <c r="AT8" s="3">
-        <v>3.79892</v>
-      </c>
-      <c r="AU8">
-        <v>117.734</v>
-      </c>
-      <c r="AV8">
-        <v>124.456</v>
-      </c>
-      <c r="AW8">
-        <v>58.276</v>
-      </c>
-      <c r="AX8">
-        <v>58.59780000000001</v>
-      </c>
-      <c r="AY8">
-        <v>50.0323</v>
-      </c>
-      <c r="AZ8" s="3">
-        <v>6.83423</v>
-      </c>
-      <c r="BA8" s="3">
-        <v>5.35704</v>
-      </c>
-      <c r="BB8">
-        <v>69.1811</v>
-      </c>
-      <c r="BC8">
-        <v>88.2577</v>
-      </c>
-      <c r="BD8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BK8">
-        <v>80.6088</v>
-      </c>
-      <c r="BL8">
-        <v>80.63980000000001</v>
-      </c>
-      <c r="BM8">
-        <v>50.0033</v>
-      </c>
-      <c r="BN8" s="3">
-        <v>15.4576</v>
-      </c>
-      <c r="BO8" s="3">
-        <v>13.7712</v>
-      </c>
-      <c r="BP8">
-        <v>32.0232</v>
-      </c>
-      <c r="BQ8">
-        <v>35.9446</v>
+      <c r="T8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AS8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AT8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AU8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AY8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AZ8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="BA8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="BB8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="BD8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="BE8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="BF8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="BG8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="BH8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="BI8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="BJ8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="BK8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="BL8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="BM8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="BN8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="BO8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="BP8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="BQ8" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:69">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
         <v>103</v>
@@ -2596,159 +2582,159 @@
         <v>112</v>
       </c>
       <c r="T9">
-        <v>204.651</v>
+        <v>182.061</v>
       </c>
       <c r="U9">
-        <v>184.238</v>
+        <v>170.596</v>
       </c>
       <c r="V9">
-        <v>194.444</v>
-      </c>
-      <c r="W9" s="2">
-        <v>47.9574</v>
-      </c>
-      <c r="X9" s="3">
-        <v>16.2581</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>16.4658</v>
+        <v>176.328</v>
+      </c>
+      <c r="W9">
+        <v>48.8524</v>
+      </c>
+      <c r="X9" s="2">
+        <v>16.2037</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>16.4336</v>
       </c>
       <c r="Z9">
-        <v>33.2142</v>
+        <v>33.3257</v>
       </c>
       <c r="AA9">
-        <v>32.7953</v>
+        <v>32.8596</v>
       </c>
       <c r="AB9">
-        <v>144.897</v>
+        <v>129.526</v>
       </c>
       <c r="AC9">
-        <v>140.993</v>
+        <v>127.109</v>
       </c>
       <c r="AD9">
-        <v>49.6109</v>
-      </c>
-      <c r="AE9" s="4">
-        <v>234.056</v>
-      </c>
-      <c r="AF9" s="4">
-        <v>233.763</v>
+        <v>49.7582</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>14.5384</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>14.4755</v>
       </c>
       <c r="AG9">
-        <v>1.73036</v>
+        <v>27.8572</v>
       </c>
       <c r="AH9">
-        <v>1.73252</v>
+        <v>27.9783</v>
       </c>
       <c r="AI9">
-        <v>-2760.47</v>
+        <v>129.911</v>
       </c>
       <c r="AJ9">
-        <v>-3175.85</v>
-      </c>
-      <c r="AK9" s="4">
-        <v>90.9426</v>
-      </c>
-      <c r="AL9" s="4">
-        <v>234.703</v>
-      </c>
-      <c r="AM9" s="4">
-        <v>234.398</v>
+        <v>127.495</v>
+      </c>
+      <c r="AK9">
+        <v>49.7583</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>14.5484</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>14.4852</v>
       </c>
       <c r="AN9">
-        <v>1.72559</v>
+        <v>27.8382</v>
       </c>
       <c r="AO9">
-        <v>1.72783</v>
+        <v>27.9596</v>
       </c>
       <c r="AP9">
-        <v>58.5025</v>
+        <v>58.5204</v>
       </c>
       <c r="AQ9">
-        <v>58.99490000000001</v>
+        <v>59.0005</v>
       </c>
       <c r="AR9">
-        <v>50.0491</v>
-      </c>
-      <c r="AS9" s="3">
-        <v>5.52186</v>
-      </c>
-      <c r="AT9" s="3">
-        <v>5.32827</v>
+        <v>50.048</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>5.52303</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>5.32914</v>
       </c>
       <c r="AU9">
-        <v>73.34480000000001</v>
+        <v>73.32940000000001</v>
       </c>
       <c r="AV9">
-        <v>76.00960000000001</v>
+        <v>75.99720000000001</v>
       </c>
       <c r="AW9">
-        <v>67.8267</v>
+        <v>67.8454</v>
       </c>
       <c r="AX9">
-        <v>68.01689999999999</v>
+        <v>68.02289999999999</v>
       </c>
       <c r="AY9">
-        <v>50.0189</v>
-      </c>
-      <c r="AZ9" s="3">
-        <v>8.145150000000001</v>
-      </c>
-      <c r="BA9" s="3">
-        <v>6.57971</v>
+        <v>50.0178</v>
+      </c>
+      <c r="AZ9" s="2">
+        <v>8.144870000000001</v>
+      </c>
+      <c r="BA9" s="2">
+        <v>6.58001</v>
       </c>
       <c r="BB9">
-        <v>49.7228</v>
+        <v>49.7246</v>
       </c>
       <c r="BC9">
-        <v>61.5528</v>
-      </c>
-      <c r="BD9" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE9" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF9" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG9" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH9" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI9" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ9" s="5" t="s">
+        <v>61.5501</v>
+      </c>
+      <c r="BD9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ9" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK9">
-        <v>93.9452</v>
+        <v>93.9631</v>
       </c>
       <c r="BL9">
-        <v>94.02970000000001</v>
+        <v>94.0356</v>
       </c>
       <c r="BM9">
-        <v>50.0084</v>
-      </c>
-      <c r="BN9" s="3">
-        <v>15.4475</v>
-      </c>
-      <c r="BO9" s="3">
-        <v>17.2284</v>
+        <v>50.0073</v>
+      </c>
+      <c r="BN9" s="2">
+        <v>15.4504</v>
+      </c>
+      <c r="BO9" s="2">
+        <v>17.2292</v>
       </c>
       <c r="BP9">
-        <v>26.2178</v>
+        <v>26.213</v>
       </c>
       <c r="BQ9">
-        <v>23.5077</v>
+        <v>23.5067</v>
       </c>
     </row>
     <row r="10" spans="1:69">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
         <v>103</v>
@@ -2805,171 +2791,171 @@
         <v>112</v>
       </c>
       <c r="T10">
-        <v>190.757</v>
+        <v>173.701</v>
       </c>
       <c r="U10">
-        <v>179.326</v>
+        <v>165.326</v>
       </c>
       <c r="V10">
-        <v>185.042</v>
+        <v>169.514</v>
       </c>
       <c r="W10">
-        <v>48.8626</v>
-      </c>
-      <c r="X10" s="3">
-        <v>14.9276</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>14.8533</v>
+        <v>49.1626</v>
+      </c>
+      <c r="X10" s="2">
+        <v>14.8905</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>14.8246</v>
       </c>
       <c r="Z10">
-        <v>36.1746</v>
+        <v>36.2646</v>
       </c>
       <c r="AA10">
-        <v>36.3555</v>
+        <v>36.4259</v>
       </c>
       <c r="AB10">
-        <v>134.074</v>
+        <v>122.274</v>
       </c>
       <c r="AC10">
-        <v>132.186</v>
+        <v>121.776</v>
       </c>
       <c r="AD10">
-        <v>49.8116</v>
-      </c>
-      <c r="AE10" s="4">
-        <v>231.204</v>
-      </c>
-      <c r="AF10" s="4">
-        <v>230.695</v>
+        <v>49.9502</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>13.2664</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>13.0773</v>
       </c>
       <c r="AG10">
-        <v>1.7517</v>
+        <v>30.5283</v>
       </c>
       <c r="AH10">
-        <v>1.75556</v>
+        <v>30.9696</v>
       </c>
       <c r="AI10">
-        <v>144.615</v>
+        <v>122.659</v>
       </c>
       <c r="AJ10">
-        <v>140.044</v>
+        <v>122.161</v>
       </c>
       <c r="AK10">
-        <v>49.5454</v>
-      </c>
-      <c r="AL10" s="4">
-        <v>231.854</v>
-      </c>
-      <c r="AM10" s="4">
-        <v>231.317</v>
+        <v>49.9502</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>13.2762</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>13.0877</v>
       </c>
       <c r="AN10">
-        <v>1.74679</v>
+        <v>30.5057</v>
       </c>
       <c r="AO10">
-        <v>1.75084</v>
+        <v>30.9451</v>
       </c>
       <c r="AP10">
         <v>54.9939</v>
       </c>
       <c r="AQ10">
-        <v>55.3461</v>
+        <v>55.3446</v>
       </c>
       <c r="AR10">
-        <v>50.035</v>
-      </c>
-      <c r="AS10" s="3">
-        <v>4.09259</v>
-      </c>
-      <c r="AT10" s="3">
-        <v>3.89726</v>
+        <v>50.0352</v>
+      </c>
+      <c r="AS10" s="2">
+        <v>4.091670000000001</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>3.89627</v>
       </c>
       <c r="AU10">
-        <v>98.9592</v>
+        <v>98.9815</v>
       </c>
       <c r="AV10">
-        <v>103.919</v>
+        <v>103.945</v>
       </c>
       <c r="AW10">
-        <v>63.8736</v>
+        <v>63.87190000000001</v>
       </c>
       <c r="AX10">
-        <v>64.0869</v>
+        <v>64.0852</v>
       </c>
       <c r="AY10">
-        <v>50.0211</v>
-      </c>
-      <c r="AZ10" s="3">
-        <v>7.42705</v>
-      </c>
-      <c r="BA10" s="3">
-        <v>5.96495</v>
+        <v>50.0214</v>
+      </c>
+      <c r="AZ10" s="2">
+        <v>7.42664</v>
+      </c>
+      <c r="BA10" s="2">
+        <v>5.96434</v>
       </c>
       <c r="BB10">
-        <v>54.5304</v>
+        <v>54.5334</v>
       </c>
       <c r="BC10">
-        <v>67.8967</v>
-      </c>
-      <c r="BD10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ10" s="5" t="s">
+        <v>67.90349999999999</v>
+      </c>
+      <c r="BD10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ10" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK10">
-        <v>89.15350000000001</v>
+        <v>89.1498</v>
       </c>
       <c r="BL10">
-        <v>90.6413</v>
+        <v>90.6387</v>
       </c>
       <c r="BM10">
-        <v>50.1486</v>
-      </c>
-      <c r="BN10" s="3">
-        <v>14.3426</v>
-      </c>
-      <c r="BO10" s="3">
-        <v>15.4058</v>
+        <v>50.1489</v>
+      </c>
+      <c r="BN10" s="2">
+        <v>14.3446</v>
+      </c>
+      <c r="BO10" s="2">
+        <v>15.4071</v>
       </c>
       <c r="BP10">
-        <v>28.2376</v>
+        <v>28.2336</v>
       </c>
       <c r="BQ10">
-        <v>26.2888</v>
+        <v>26.2865</v>
       </c>
     </row>
     <row r="11" spans="1:69">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F11" t="s">
         <v>107</v>
@@ -3014,171 +3000,171 @@
         <v>112</v>
       </c>
       <c r="T11">
-        <v>196.288</v>
+        <v>181.212</v>
       </c>
       <c r="U11">
-        <v>184.571</v>
+        <v>170.548</v>
       </c>
       <c r="V11">
-        <v>190.429</v>
+        <v>175.88</v>
       </c>
       <c r="W11">
-        <v>48.8359</v>
-      </c>
-      <c r="X11" s="3">
-        <v>18.0039</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>15.822</v>
+        <v>48.9342</v>
+      </c>
+      <c r="X11" s="2">
+        <v>17.9377</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>15.7984</v>
       </c>
       <c r="Z11">
-        <v>35.0146</v>
+        <v>35.1439</v>
       </c>
       <c r="AA11">
-        <v>39.8432</v>
+        <v>39.9029</v>
       </c>
       <c r="AB11">
-        <v>152.82</v>
+        <v>130.367</v>
       </c>
       <c r="AC11">
-        <v>134.598</v>
-      </c>
-      <c r="AD11" s="2">
-        <v>48.1804</v>
-      </c>
-      <c r="AE11" s="4">
-        <v>235.282</v>
-      </c>
-      <c r="AF11" s="4">
-        <v>230.445</v>
+        <v>126.357</v>
+      </c>
+      <c r="AD11">
+        <v>49.5993</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>14.9026</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>12.9527</v>
       </c>
       <c r="AG11">
-        <v>2.10386</v>
+        <v>33.2157</v>
       </c>
       <c r="AH11">
-        <v>2.14802</v>
+        <v>38.216</v>
       </c>
       <c r="AI11">
-        <v>-1695.85</v>
+        <v>130.752</v>
       </c>
       <c r="AJ11">
-        <v>-2178.36</v>
-      </c>
-      <c r="AK11" s="4">
-        <v>56.2896</v>
-      </c>
-      <c r="AL11" s="4">
-        <v>235.958</v>
-      </c>
-      <c r="AM11" s="4">
-        <v>231.056</v>
+        <v>126.743</v>
+      </c>
+      <c r="AK11">
+        <v>49.5994</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>14.9115</v>
+      </c>
+      <c r="AM11" s="2">
+        <v>12.9643</v>
       </c>
       <c r="AN11">
-        <v>2.09783</v>
+        <v>33.1959</v>
       </c>
       <c r="AO11">
-        <v>2.14234</v>
+        <v>38.1818</v>
       </c>
       <c r="AP11">
-        <v>57.9247</v>
+        <v>57.9311</v>
       </c>
       <c r="AQ11">
-        <v>58.25340000000001</v>
+        <v>58.2612</v>
       </c>
       <c r="AR11">
-        <v>50.0329</v>
-      </c>
-      <c r="AS11" s="3">
-        <v>5.25072</v>
-      </c>
-      <c r="AT11" s="3">
-        <v>4.48868</v>
+        <v>50.0332</v>
+      </c>
+      <c r="AS11" s="2">
+        <v>5.24933</v>
+      </c>
+      <c r="AT11" s="2">
+        <v>4.49063</v>
       </c>
       <c r="AU11">
-        <v>90.04470000000001</v>
+        <v>90.0686</v>
       </c>
       <c r="AV11">
-        <v>105.332</v>
+        <v>105.286</v>
       </c>
       <c r="AW11">
-        <v>67.8202</v>
+        <v>67.827</v>
       </c>
       <c r="AX11">
-        <v>67.4825</v>
+        <v>67.4897</v>
       </c>
       <c r="AY11">
-        <v>49.9663</v>
-      </c>
-      <c r="AZ11" s="3">
+        <v>49.9666</v>
+      </c>
+      <c r="AZ11" s="2">
         <v>9.65494</v>
       </c>
-      <c r="BA11" s="3">
-        <v>6.00902</v>
+      <c r="BA11" s="2">
+        <v>6.01011</v>
       </c>
       <c r="BB11">
         <v>48.9697</v>
       </c>
       <c r="BC11">
-        <v>78.68170000000001</v>
-      </c>
-      <c r="BD11" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE11" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF11" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG11" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH11" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI11" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ11" s="5" t="s">
+        <v>78.6674</v>
+      </c>
+      <c r="BD11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ11" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK11">
-        <v>95.62309999999999</v>
+        <v>95.6311</v>
       </c>
       <c r="BL11">
-        <v>93.0941</v>
+        <v>93.1035</v>
       </c>
       <c r="BM11">
-        <v>49.747</v>
-      </c>
-      <c r="BN11" s="3">
-        <v>24.7305</v>
-      </c>
-      <c r="BO11" s="3">
-        <v>14.0871</v>
+        <v>49.7475</v>
+      </c>
+      <c r="BN11" s="2">
+        <v>24.7306</v>
+      </c>
+      <c r="BO11" s="2">
+        <v>14.0881</v>
       </c>
       <c r="BP11">
-        <v>20.0158</v>
+        <v>20.0157</v>
       </c>
       <c r="BQ11">
-        <v>35.1386</v>
+        <v>35.1361</v>
       </c>
     </row>
     <row r="12" spans="1:69">
       <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" t="s">
         <v>121</v>
-      </c>
-      <c r="B12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" t="s">
-        <v>120</v>
       </c>
       <c r="F12" t="s">
         <v>107</v>
@@ -3223,171 +3209,171 @@
         <v>112</v>
       </c>
       <c r="T12">
-        <v>185.262</v>
+        <v>172.79</v>
       </c>
       <c r="U12">
-        <v>176.131</v>
+        <v>163.576</v>
       </c>
       <c r="V12">
-        <v>180.697</v>
+        <v>168.183</v>
       </c>
       <c r="W12">
-        <v>49.0964</v>
-      </c>
-      <c r="X12" s="3">
-        <v>16.9099</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>14.3199</v>
+        <v>49.078</v>
+      </c>
+      <c r="X12" s="2">
+        <v>16.8673</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>14.3081</v>
       </c>
       <c r="Z12">
-        <v>37.2799</v>
+        <v>37.3741</v>
       </c>
       <c r="AA12">
-        <v>44.0225</v>
+        <v>44.059</v>
       </c>
       <c r="AB12">
-        <v>137.354</v>
+        <v>123.03</v>
       </c>
       <c r="AC12">
-        <v>126.01</v>
+        <v>119.845</v>
       </c>
       <c r="AD12">
-        <v>48.8667</v>
-      </c>
-      <c r="AE12" s="4">
-        <v>232.419</v>
-      </c>
-      <c r="AF12" s="4">
-        <v>227.366</v>
+        <v>49.6816</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>13.7011</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>11.5005</v>
       </c>
       <c r="AG12">
-        <v>2.12977</v>
+        <v>36.1286</v>
       </c>
       <c r="AH12">
-        <v>2.17711</v>
+        <v>43.0416</v>
       </c>
       <c r="AI12">
-        <v>-1676.76</v>
+        <v>123.414</v>
       </c>
       <c r="AJ12">
-        <v>-1870.53</v>
-      </c>
-      <c r="AK12" s="3">
-        <v>36.7422</v>
-      </c>
-      <c r="AL12" s="4">
-        <v>233.094</v>
-      </c>
-      <c r="AM12" s="4">
-        <v>228.048</v>
+        <v>120.232</v>
+      </c>
+      <c r="AK12">
+        <v>49.6818</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>13.7102</v>
+      </c>
+      <c r="AM12" s="2">
+        <v>11.5132</v>
       </c>
       <c r="AN12">
-        <v>2.12361</v>
+        <v>36.1044</v>
       </c>
       <c r="AO12">
-        <v>2.17059</v>
+        <v>42.9942</v>
       </c>
       <c r="AP12">
-        <v>53.9516</v>
+        <v>53.9608</v>
       </c>
       <c r="AQ12">
-        <v>54.3092</v>
+        <v>54.3183</v>
       </c>
       <c r="AR12">
         <v>50.0357</v>
       </c>
-      <c r="AS12" s="3">
-        <v>4.08525</v>
-      </c>
-      <c r="AT12" s="3">
-        <v>3.42868</v>
+      <c r="AS12" s="2">
+        <v>4.08595</v>
+      </c>
+      <c r="AT12" s="2">
+        <v>3.42915</v>
       </c>
       <c r="AU12">
-        <v>115.734</v>
+        <v>115.714</v>
       </c>
       <c r="AV12">
-        <v>137.895</v>
+        <v>137.877</v>
       </c>
       <c r="AW12">
-        <v>63.5304</v>
+        <v>63.5412</v>
       </c>
       <c r="AX12">
-        <v>63.1801</v>
+        <v>63.19090000000001</v>
       </c>
       <c r="AY12">
         <v>49.9649</v>
       </c>
-      <c r="AZ12" s="3">
-        <v>9.02467</v>
-      </c>
-      <c r="BA12" s="3">
-        <v>5.40148</v>
+      <c r="AZ12" s="2">
+        <v>9.024890000000001</v>
+      </c>
+      <c r="BA12" s="2">
+        <v>5.40089</v>
       </c>
       <c r="BB12">
-        <v>52.3898</v>
+        <v>52.3884</v>
       </c>
       <c r="BC12">
-        <v>87.5316</v>
-      </c>
-      <c r="BD12" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE12" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF12" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG12" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH12" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI12" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ12" s="5" t="s">
+        <v>87.5412</v>
+      </c>
+      <c r="BD12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ12" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK12">
-        <v>90.5431</v>
+        <v>90.5544</v>
       </c>
       <c r="BL12">
-        <v>88.83929999999999</v>
+        <v>88.84869999999999</v>
       </c>
       <c r="BM12">
-        <v>49.8295</v>
-      </c>
-      <c r="BN12" s="3">
-        <v>23.4348</v>
-      </c>
-      <c r="BO12" s="3">
-        <v>12.6633</v>
+        <v>49.8294</v>
+      </c>
+      <c r="BN12" s="2">
+        <v>23.4349</v>
+      </c>
+      <c r="BO12" s="2">
+        <v>12.6611</v>
       </c>
       <c r="BP12">
-        <v>21.1224</v>
+        <v>21.1223</v>
       </c>
       <c r="BQ12">
-        <v>39.0894</v>
+        <v>39.0962</v>
       </c>
     </row>
     <row r="13" spans="1:69">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F13" t="s">
         <v>107</v>
@@ -3429,174 +3415,174 @@
         <v>81</v>
       </c>
       <c r="S13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="T13">
-        <v>213.128</v>
+        <v>195.003</v>
       </c>
       <c r="U13">
-        <v>200.832</v>
+        <v>184.071</v>
       </c>
       <c r="V13">
-        <v>206.98</v>
+        <v>189.537</v>
       </c>
       <c r="W13">
-        <v>48.7789</v>
-      </c>
-      <c r="X13" s="3">
-        <v>19.3215</v>
-      </c>
-      <c r="Y13" s="3">
-        <v>17.0513</v>
+        <v>48.9067</v>
+      </c>
+      <c r="X13" s="2">
+        <v>19.2461</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>17.0363</v>
       </c>
       <c r="Z13">
-        <v>32.6269</v>
+        <v>32.7547</v>
       </c>
       <c r="AA13">
-        <v>36.9707</v>
+        <v>37.0032</v>
       </c>
       <c r="AB13">
-        <v>-1703.55</v>
+        <v>141.525</v>
       </c>
       <c r="AC13">
-        <v>-2165.75</v>
-      </c>
-      <c r="AD13" s="4">
-        <v>77.88809999999999</v>
-      </c>
-      <c r="AE13" s="4">
-        <v>239.264</v>
-      </c>
-      <c r="AF13" s="4">
-        <v>234.193</v>
+        <v>137.563</v>
+      </c>
+      <c r="AD13">
+        <v>49.6039</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>16.3339</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>14.5067</v>
       </c>
       <c r="AG13">
-        <v>2.06884</v>
+        <v>30.3051</v>
       </c>
       <c r="AH13">
-        <v>2.11364</v>
+        <v>34.1222</v>
       </c>
       <c r="AI13">
-        <v>-1651.05</v>
+        <v>141.91</v>
       </c>
       <c r="AJ13">
-        <v>-1802.34</v>
-      </c>
-      <c r="AK13" s="4">
-        <v>72.05719999999999</v>
-      </c>
-      <c r="AL13" s="4">
-        <v>240.041</v>
-      </c>
-      <c r="AM13" s="4">
-        <v>234.829</v>
+        <v>137.949</v>
+      </c>
+      <c r="AK13">
+        <v>49.604</v>
+      </c>
+      <c r="AL13" s="2">
+        <v>16.3411</v>
+      </c>
+      <c r="AM13" s="2">
+        <v>14.5164</v>
       </c>
       <c r="AN13">
-        <v>2.06214</v>
+        <v>30.2918</v>
       </c>
       <c r="AO13">
-        <v>2.10792</v>
+        <v>34.0994</v>
       </c>
       <c r="AP13">
-        <v>65.30330000000001</v>
+        <v>65.30630000000001</v>
       </c>
       <c r="AQ13">
-        <v>65.4949</v>
+        <v>65.49679999999999</v>
       </c>
       <c r="AR13">
-        <v>50.0189</v>
-      </c>
-      <c r="AS13" s="3">
-        <v>6.102139999999999</v>
-      </c>
-      <c r="AT13" s="3">
-        <v>5.14549</v>
+        <v>50.019</v>
+      </c>
+      <c r="AS13" s="2">
+        <v>6.10435</v>
+      </c>
+      <c r="AT13" s="2">
+        <v>5.14213</v>
       </c>
       <c r="AU13">
-        <v>77.4811</v>
+        <v>77.453</v>
       </c>
       <c r="AV13">
-        <v>91.88630000000001</v>
+        <v>91.9464</v>
       </c>
       <c r="AW13">
-        <v>75.2312</v>
+        <v>75.2341</v>
       </c>
       <c r="AX13">
-        <v>74.89760000000001</v>
+        <v>74.896</v>
       </c>
       <c r="AY13">
-        <v>49.9665</v>
-      </c>
-      <c r="AZ13" s="3">
-        <v>9.73968</v>
-      </c>
-      <c r="BA13" s="3">
-        <v>6.24887</v>
+        <v>49.9661</v>
+      </c>
+      <c r="AZ13" s="2">
+        <v>9.7394</v>
+      </c>
+      <c r="BA13" s="2">
+        <v>6.2479</v>
       </c>
       <c r="BB13">
-        <v>48.5437</v>
+        <v>48.5451</v>
       </c>
       <c r="BC13">
-        <v>75.6617</v>
-      </c>
-      <c r="BD13" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE13" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF13" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG13" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH13" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI13" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ13" s="5" t="s">
+        <v>75.6735</v>
+      </c>
+      <c r="BD13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ13" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK13">
-        <v>103.581</v>
+        <v>103.583</v>
       </c>
       <c r="BL13">
-        <v>101.306</v>
+        <v>101.304</v>
       </c>
       <c r="BM13">
-        <v>49.7724</v>
-      </c>
-      <c r="BN13" s="3">
-        <v>25.0119</v>
-      </c>
-      <c r="BO13" s="3">
-        <v>14.441</v>
+        <v>49.7721</v>
+      </c>
+      <c r="BN13" s="2">
+        <v>25.0132</v>
+      </c>
+      <c r="BO13" s="2">
+        <v>14.4398</v>
       </c>
       <c r="BP13">
-        <v>19.7906</v>
+        <v>19.7896</v>
       </c>
       <c r="BQ13">
-        <v>34.2775</v>
+        <v>34.2802</v>
       </c>
     </row>
     <row r="14" spans="1:69">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F14" t="s">
         <v>107</v>
@@ -3638,174 +3624,174 @@
         <v>81</v>
       </c>
       <c r="S14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="T14">
-        <v>200.795</v>
+        <v>185.64</v>
       </c>
       <c r="U14">
-        <v>192.427</v>
+        <v>176.4</v>
       </c>
       <c r="V14">
-        <v>196.611</v>
+        <v>181.02</v>
       </c>
       <c r="W14">
-        <v>49.1741</v>
-      </c>
-      <c r="X14" s="3">
-        <v>18.1287</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>15.4811</v>
+        <v>49.0755</v>
+      </c>
+      <c r="X14" s="2">
+        <v>18.0784</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>15.4618</v>
       </c>
       <c r="Z14">
-        <v>34.7735</v>
+        <v>34.8703</v>
       </c>
       <c r="AA14">
-        <v>40.7207</v>
+        <v>40.7714</v>
       </c>
       <c r="AB14">
-        <v>162.084</v>
+        <v>133.365</v>
       </c>
       <c r="AC14">
-        <v>138.513</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>47.6483</v>
-      </c>
-      <c r="AE14" s="4">
-        <v>235.983</v>
-      </c>
-      <c r="AF14" s="4">
-        <v>230.832</v>
+        <v>130.378</v>
+      </c>
+      <c r="AD14">
+        <v>49.7016</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>15.0099</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>12.9458</v>
       </c>
       <c r="AG14">
-        <v>2.09761</v>
+        <v>32.9783</v>
       </c>
       <c r="AH14">
-        <v>2.14441</v>
+        <v>38.2364</v>
       </c>
       <c r="AI14">
-        <v>-1685.41</v>
+        <v>133.75</v>
       </c>
       <c r="AJ14">
-        <v>-2177.2</v>
-      </c>
-      <c r="AK14" s="3">
-        <v>33.7452</v>
-      </c>
-      <c r="AL14" s="4">
-        <v>236.679</v>
-      </c>
-      <c r="AM14" s="4">
-        <v>231.433</v>
+        <v>130.764</v>
+      </c>
+      <c r="AK14">
+        <v>49.7017</v>
+      </c>
+      <c r="AL14" s="2">
+        <v>15.0183</v>
+      </c>
+      <c r="AM14" s="2">
+        <v>12.957</v>
       </c>
       <c r="AN14">
-        <v>2.09144</v>
+        <v>32.9597</v>
       </c>
       <c r="AO14">
-        <v>2.13885</v>
+        <v>38.2032</v>
       </c>
       <c r="AP14">
-        <v>60.865</v>
+        <v>60.8671</v>
       </c>
       <c r="AQ14">
-        <v>60.9788</v>
+        <v>60.9806</v>
       </c>
       <c r="AR14">
         <v>50.0115</v>
       </c>
-      <c r="AS14" s="3">
-        <v>4.6853</v>
-      </c>
-      <c r="AT14" s="3">
-        <v>3.85662</v>
+      <c r="AS14" s="2">
+        <v>4.68549</v>
+      </c>
+      <c r="AT14" s="2">
+        <v>3.85703</v>
       </c>
       <c r="AU14">
-        <v>100.911</v>
+        <v>100.907</v>
       </c>
       <c r="AV14">
-        <v>122.594</v>
+        <v>122.581</v>
       </c>
       <c r="AW14">
-        <v>70.4721</v>
+        <v>70.4743</v>
       </c>
       <c r="AX14">
-        <v>70.0304</v>
+        <v>70.03230000000001</v>
       </c>
       <c r="AY14">
-        <v>49.9559</v>
-      </c>
-      <c r="AZ14" s="3">
-        <v>9.099070000000001</v>
-      </c>
-      <c r="BA14" s="3">
-        <v>5.63349</v>
+        <v>49.956</v>
+      </c>
+      <c r="AZ14" s="2">
+        <v>9.098549999999999</v>
+      </c>
+      <c r="BA14" s="2">
+        <v>5.63217</v>
       </c>
       <c r="BB14">
-        <v>51.9613</v>
+        <v>51.9643</v>
       </c>
       <c r="BC14">
-        <v>83.92659999999999</v>
-      </c>
-      <c r="BD14" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE14" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF14" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG14" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH14" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI14" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ14" s="5" t="s">
+        <v>83.9464</v>
+      </c>
+      <c r="BD14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ14" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK14">
-        <v>98.00850000000001</v>
+        <v>98.00930000000001</v>
       </c>
       <c r="BL14">
-        <v>96.6022</v>
+        <v>96.6031</v>
       </c>
       <c r="BM14">
         <v>49.8596</v>
       </c>
-      <c r="BN14" s="3">
-        <v>23.7637</v>
-      </c>
-      <c r="BO14" s="3">
-        <v>13.0532</v>
+      <c r="BN14" s="2">
+        <v>23.7632</v>
+      </c>
+      <c r="BO14" s="2">
+        <v>13.0533</v>
       </c>
       <c r="BP14">
-        <v>20.8301</v>
+        <v>20.8305</v>
       </c>
       <c r="BQ14">
-        <v>37.9219</v>
+        <v>37.9215</v>
       </c>
     </row>
     <row r="15" spans="1:69">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F15" t="s">
         <v>107</v>
@@ -3850,171 +3836,171 @@
         <v>112</v>
       </c>
       <c r="T15">
-        <v>241.722</v>
+        <v>207.341</v>
       </c>
       <c r="U15">
-        <v>234.567</v>
+        <v>197.361</v>
       </c>
       <c r="V15">
-        <v>238.144</v>
+        <v>202.351</v>
       </c>
       <c r="W15">
-        <v>49.3286</v>
-      </c>
-      <c r="X15" s="3">
-        <v>21.0004</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>18.0374</v>
+        <v>49.0019</v>
+      </c>
+      <c r="X15" s="2">
+        <v>20.9286</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>18.0269</v>
       </c>
       <c r="Z15">
-        <v>25.7138</v>
+        <v>25.802</v>
       </c>
       <c r="AA15">
-        <v>29.9378</v>
-      </c>
-      <c r="AB15" s="4">
-        <v>353.381</v>
+        <v>29.9552</v>
+      </c>
+      <c r="AB15">
+        <v>146.568</v>
       </c>
       <c r="AC15">
-        <v>156.278</v>
-      </c>
-      <c r="AD15" s="3">
-        <v>30.2896</v>
-      </c>
-      <c r="AE15" s="4">
-        <v>243.433</v>
-      </c>
-      <c r="AF15" s="4">
-        <v>234.361</v>
+        <v>143.89</v>
+      </c>
+      <c r="AD15">
+        <v>49.7321</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>17.7054</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>14.7881</v>
       </c>
       <c r="AG15">
-        <v>1.6637</v>
+        <v>22.8744</v>
       </c>
       <c r="AH15">
-        <v>1.7281</v>
+        <v>27.3869</v>
       </c>
       <c r="AI15">
-        <v>-2257.64</v>
+        <v>146.952</v>
       </c>
       <c r="AJ15">
-        <v>-2752.23</v>
-      </c>
-      <c r="AK15" s="3">
-        <v>5.61139</v>
-      </c>
-      <c r="AL15" s="4">
-        <v>244.658</v>
-      </c>
-      <c r="AM15" s="4">
-        <v>235.042</v>
+        <v>144.275</v>
+      </c>
+      <c r="AK15">
+        <v>49.7323</v>
+      </c>
+      <c r="AL15" s="2">
+        <v>17.7124</v>
+      </c>
+      <c r="AM15" s="2">
+        <v>14.7976</v>
       </c>
       <c r="AN15">
-        <v>1.65537</v>
+        <v>22.8654</v>
       </c>
       <c r="AO15">
-        <v>1.72309</v>
+        <v>27.3694</v>
       </c>
       <c r="AP15">
-        <v>63.1743</v>
+        <v>63.18230000000001</v>
       </c>
       <c r="AQ15">
-        <v>63.45050000000001</v>
+        <v>63.45509999999999</v>
       </c>
       <c r="AR15">
-        <v>50.0278</v>
-      </c>
-      <c r="AS15" s="3">
-        <v>5.465100000000001</v>
-      </c>
-      <c r="AT15" s="3">
-        <v>4.66025</v>
+        <v>50.0272</v>
+      </c>
+      <c r="AS15" s="2">
+        <v>5.466279999999999</v>
+      </c>
+      <c r="AT15" s="2">
+        <v>4.66075</v>
       </c>
       <c r="AU15">
-        <v>74.1066</v>
+        <v>74.0907</v>
       </c>
       <c r="AV15">
-        <v>86.90519999999999</v>
+        <v>86.8959</v>
       </c>
       <c r="AW15">
-        <v>74.9237</v>
+        <v>74.931</v>
       </c>
       <c r="AX15">
-        <v>74.29519999999999</v>
+        <v>74.3027</v>
       </c>
       <c r="AY15">
-        <v>49.9372</v>
-      </c>
-      <c r="AZ15" s="3">
-        <v>11.0267</v>
-      </c>
-      <c r="BA15" s="3">
-        <v>6.698700000000001</v>
+        <v>49.937</v>
+      </c>
+      <c r="AZ15" s="2">
+        <v>11.0256</v>
+      </c>
+      <c r="BA15" s="2">
+        <v>6.69983</v>
       </c>
       <c r="BB15">
-        <v>36.729</v>
+        <v>36.7328</v>
       </c>
       <c r="BC15">
-        <v>60.4595</v>
-      </c>
-      <c r="BD15" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE15" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF15" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG15" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH15" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI15" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ15" s="5" t="s">
+        <v>60.4493</v>
+      </c>
+      <c r="BD15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ15" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK15">
-        <v>106.938</v>
+        <v>106.943</v>
       </c>
       <c r="BL15">
-        <v>105.363</v>
+        <v>105.369</v>
       </c>
       <c r="BM15">
-        <v>49.8427</v>
-      </c>
-      <c r="BN15" s="3">
-        <v>24.3857</v>
-      </c>
-      <c r="BO15" s="3">
-        <v>15.4438</v>
+        <v>49.8426</v>
+      </c>
+      <c r="BN15" s="2">
+        <v>24.3844</v>
+      </c>
+      <c r="BO15" s="2">
+        <v>15.4434</v>
       </c>
       <c r="BP15">
-        <v>16.6081</v>
+        <v>16.6089</v>
       </c>
       <c r="BQ15">
-        <v>26.2242</v>
+        <v>26.2248</v>
       </c>
     </row>
     <row r="16" spans="1:69">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F16" t="s">
         <v>107</v>
@@ -4059,171 +4045,171 @@
         <v>112</v>
       </c>
       <c r="T16">
-        <v>244.941</v>
+        <v>207.88</v>
       </c>
       <c r="U16">
-        <v>240.291</v>
+        <v>198.149</v>
       </c>
       <c r="V16">
-        <v>242.616</v>
+        <v>203.015</v>
       </c>
       <c r="W16">
-        <v>49.5859</v>
-      </c>
-      <c r="X16" s="3">
-        <v>20.415</v>
-      </c>
-      <c r="Y16" s="3">
-        <v>16.5769</v>
+        <v>49.0269</v>
+      </c>
+      <c r="X16" s="2">
+        <v>20.4056</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>16.5698</v>
       </c>
       <c r="Z16">
-        <v>26.4511</v>
+        <v>26.4633</v>
       </c>
       <c r="AA16">
-        <v>32.5755</v>
-      </c>
-      <c r="AB16" s="4">
-        <v>351.871</v>
+        <v>32.5894</v>
+      </c>
+      <c r="AB16">
+        <v>145.278</v>
       </c>
       <c r="AC16">
-        <v>152.598</v>
-      </c>
-      <c r="AD16" s="3">
-        <v>30.0724</v>
-      </c>
-      <c r="AE16" s="4">
-        <v>241.606</v>
-      </c>
-      <c r="AF16" s="4">
-        <v>231.415</v>
+        <v>142.62</v>
+      </c>
+      <c r="AD16">
+        <v>49.7343</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>16.9471</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>13.4433</v>
       </c>
       <c r="AG16">
-        <v>1.67628</v>
+        <v>23.8979</v>
       </c>
       <c r="AH16">
-        <v>1.7501</v>
-      </c>
-      <c r="AI16" s="4">
-        <v>354.531</v>
+        <v>30.1264</v>
+      </c>
+      <c r="AI16">
+        <v>145.661</v>
       </c>
       <c r="AJ16">
-        <v>160.188</v>
-      </c>
-      <c r="AK16" s="3">
-        <v>30.5655</v>
-      </c>
-      <c r="AL16" s="4">
-        <v>242.846</v>
-      </c>
-      <c r="AM16" s="4">
-        <v>232.08</v>
+        <v>143.005</v>
+      </c>
+      <c r="AK16">
+        <v>49.7345</v>
+      </c>
+      <c r="AL16" s="2">
+        <v>16.9537</v>
+      </c>
+      <c r="AM16" s="2">
+        <v>13.4537</v>
       </c>
       <c r="AN16">
-        <v>1.66772</v>
+        <v>23.8886</v>
       </c>
       <c r="AO16">
-        <v>1.74509</v>
+        <v>30.1032</v>
       </c>
       <c r="AP16">
-        <v>61.28599999999999</v>
+        <v>61.2981</v>
       </c>
       <c r="AQ16">
-        <v>61.63440000000001</v>
+        <v>61.64360000000001</v>
       </c>
       <c r="AR16">
-        <v>50.0347</v>
-      </c>
-      <c r="AS16" s="3">
-        <v>4.49384</v>
-      </c>
-      <c r="AT16" s="3">
-        <v>3.79205</v>
+        <v>50.0345</v>
+      </c>
+      <c r="AS16" s="2">
+        <v>4.49655</v>
+      </c>
+      <c r="AT16" s="2">
+        <v>3.79294</v>
       </c>
       <c r="AU16">
-        <v>90.1233</v>
+        <v>90.06910000000001</v>
       </c>
       <c r="AV16">
-        <v>106.802</v>
+        <v>106.777</v>
       </c>
       <c r="AW16">
-        <v>73.1755</v>
+        <v>73.18560000000001</v>
       </c>
       <c r="AX16">
-        <v>72.50250000000001</v>
+        <v>72.511</v>
       </c>
       <c r="AY16">
-        <v>49.9327</v>
-      </c>
-      <c r="AZ16" s="3">
-        <v>10.5399</v>
-      </c>
-      <c r="BA16" s="3">
-        <v>6.10063</v>
+        <v>49.9326</v>
+      </c>
+      <c r="AZ16" s="2">
+        <v>10.5404</v>
+      </c>
+      <c r="BA16" s="2">
+        <v>6.101290000000001</v>
       </c>
       <c r="BB16">
-        <v>38.4254</v>
+        <v>38.4237</v>
       </c>
       <c r="BC16">
-        <v>66.3865</v>
-      </c>
-      <c r="BD16" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE16" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF16" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG16" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH16" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI16" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ16" s="5" t="s">
+        <v>66.3794</v>
+      </c>
+      <c r="BD16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ16" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK16">
-        <v>106.128</v>
+        <v>106.14</v>
       </c>
       <c r="BL16">
-        <v>104.948</v>
+        <v>104.954</v>
       </c>
       <c r="BM16">
-        <v>49.882</v>
-      </c>
-      <c r="BN16" s="3">
-        <v>23.9632</v>
-      </c>
-      <c r="BO16" s="3">
-        <v>13.8182</v>
+        <v>49.8814</v>
+      </c>
+      <c r="BN16" s="2">
+        <v>23.9646</v>
+      </c>
+      <c r="BO16" s="2">
+        <v>13.8165</v>
       </c>
       <c r="BP16">
-        <v>16.9009</v>
+        <v>16.8999</v>
       </c>
       <c r="BQ16">
-        <v>29.3091</v>
+        <v>29.3129</v>
       </c>
     </row>
     <row r="17" spans="1:69">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F17" t="s">
         <v>107</v>
@@ -4265,174 +4251,174 @@
         <v>81</v>
       </c>
       <c r="S17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="T17">
-        <v>261.663</v>
+        <v>220.548</v>
       </c>
       <c r="U17">
-        <v>265.936</v>
+        <v>210.686</v>
       </c>
       <c r="V17">
-        <v>263.8</v>
+        <v>215.617</v>
       </c>
       <c r="W17">
-        <v>50.5002</v>
-      </c>
-      <c r="X17" s="3">
-        <v>22.2877</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>19.2324</v>
+        <v>49.0133</v>
+      </c>
+      <c r="X17" s="2">
+        <v>22.1912</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>19.1993</v>
       </c>
       <c r="Z17">
-        <v>24.2286</v>
+        <v>24.334</v>
       </c>
       <c r="AA17">
-        <v>28.0776</v>
-      </c>
-      <c r="AB17" s="4">
-        <v>365.599</v>
+        <v>28.126</v>
+      </c>
+      <c r="AB17">
+        <v>157.254</v>
       </c>
       <c r="AC17">
-        <v>173.579</v>
-      </c>
-      <c r="AD17" s="3">
-        <v>30.7978</v>
-      </c>
-      <c r="AE17" s="4">
-        <v>248.737</v>
-      </c>
-      <c r="AF17" s="4">
-        <v>238.322</v>
+        <v>154.888</v>
+      </c>
+      <c r="AD17">
+        <v>49.7632</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>19.1363</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>16.3402</v>
       </c>
       <c r="AG17">
-        <v>1.62823</v>
+        <v>21.164</v>
       </c>
       <c r="AH17">
-        <v>1.69938</v>
+        <v>24.7855</v>
       </c>
       <c r="AI17">
-        <v>-1632.22</v>
+        <v>157.638</v>
       </c>
       <c r="AJ17">
-        <v>-1663.24</v>
-      </c>
-      <c r="AK17" s="4">
-        <v>98.8338</v>
-      </c>
-      <c r="AL17" s="4">
-        <v>250.424</v>
-      </c>
-      <c r="AM17" s="4">
-        <v>239.091</v>
+        <v>155.273</v>
+      </c>
+      <c r="AK17">
+        <v>49.7634</v>
+      </c>
+      <c r="AL17" s="2">
+        <v>19.1424</v>
+      </c>
+      <c r="AM17" s="2">
+        <v>16.3486</v>
       </c>
       <c r="AN17">
-        <v>1.61726</v>
+        <v>21.1572</v>
       </c>
       <c r="AO17">
-        <v>1.69392</v>
+        <v>24.7727</v>
       </c>
       <c r="AP17">
-        <v>70.4135</v>
+        <v>70.41669999999999</v>
       </c>
       <c r="AQ17">
-        <v>70.4945</v>
+        <v>70.496</v>
       </c>
       <c r="AR17">
-        <v>50.0082</v>
-      </c>
-      <c r="AS17" s="3">
-        <v>6.22137</v>
-      </c>
-      <c r="AT17" s="3">
-        <v>5.233910000000001</v>
+        <v>50.0079</v>
+      </c>
+      <c r="AS17" s="2">
+        <v>6.21957</v>
+      </c>
+      <c r="AT17" s="2">
+        <v>5.23333</v>
       </c>
       <c r="AU17">
-        <v>65.09820000000001</v>
+        <v>65.117</v>
       </c>
       <c r="AV17">
-        <v>77.38</v>
+        <v>77.38849999999999</v>
       </c>
       <c r="AW17">
-        <v>82.18599999999999</v>
+        <v>82.1904</v>
       </c>
       <c r="AX17">
-        <v>81.5231</v>
+        <v>81.52210000000001</v>
       </c>
       <c r="AY17">
-        <v>49.9337</v>
-      </c>
-      <c r="AZ17" s="3">
-        <v>11.0852</v>
-      </c>
-      <c r="BA17" s="3">
-        <v>6.92991</v>
+        <v>49.933</v>
+      </c>
+      <c r="AZ17" s="2">
+        <v>11.0845</v>
+      </c>
+      <c r="BA17" s="2">
+        <v>6.9281</v>
       </c>
       <c r="BB17">
-        <v>36.5353</v>
+        <v>36.5374</v>
       </c>
       <c r="BC17">
-        <v>58.4423</v>
-      </c>
-      <c r="BD17" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE17" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF17" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG17" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH17" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI17" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ17" s="5" t="s">
+        <v>58.4576</v>
+      </c>
+      <c r="BD17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ17" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK17">
-        <v>114.619</v>
+        <v>114.623</v>
       </c>
       <c r="BL17">
-        <v>113.369</v>
+        <v>113.367</v>
       </c>
       <c r="BM17">
-        <v>49.8749</v>
-      </c>
-      <c r="BN17" s="3">
-        <v>24.1808</v>
-      </c>
-      <c r="BO17" s="3">
-        <v>15.9405</v>
+        <v>49.8742</v>
+      </c>
+      <c r="BN17" s="2">
+        <v>24.1809</v>
+      </c>
+      <c r="BO17" s="2">
+        <v>15.9392</v>
       </c>
       <c r="BP17">
-        <v>16.7488</v>
+        <v>16.7487</v>
       </c>
       <c r="BQ17">
-        <v>25.4071</v>
+        <v>25.4091</v>
       </c>
     </row>
     <row r="18" spans="1:69">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F18" t="s">
         <v>107</v>
@@ -4474,174 +4460,174 @@
         <v>81</v>
       </c>
       <c r="S18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="T18">
-        <v>266.799</v>
+        <v>220.543</v>
       </c>
       <c r="U18">
-        <v>287.329</v>
+        <v>211.138</v>
       </c>
       <c r="V18">
-        <v>277.064</v>
-      </c>
-      <c r="W18" s="6">
-        <v>52.1221</v>
-      </c>
-      <c r="X18" s="3">
-        <v>21.6027</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>17.7009</v>
+        <v>215.84</v>
+      </c>
+      <c r="W18">
+        <v>49.06</v>
+      </c>
+      <c r="X18" s="2">
+        <v>21.5409</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>17.6868</v>
       </c>
       <c r="Z18">
-        <v>24.9969</v>
+        <v>25.0686</v>
       </c>
       <c r="AA18">
-        <v>30.5069</v>
-      </c>
-      <c r="AB18" s="4">
-        <v>363.724</v>
+        <v>30.5313</v>
+      </c>
+      <c r="AB18">
+        <v>155.439</v>
       </c>
       <c r="AC18">
-        <v>165.743</v>
-      </c>
-      <c r="AD18" s="3">
-        <v>30.2016</v>
-      </c>
-      <c r="AE18" s="4">
-        <v>246.616</v>
-      </c>
-      <c r="AF18" s="4">
-        <v>235.014</v>
+        <v>153.224</v>
+      </c>
+      <c r="AD18">
+        <v>49.7788</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>18.2554</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>14.8857</v>
       </c>
       <c r="AG18">
-        <v>1.64223</v>
+        <v>22.1852</v>
       </c>
       <c r="AH18">
-        <v>1.7233</v>
+        <v>27.2072</v>
       </c>
       <c r="AI18">
-        <v>-2153.07</v>
+        <v>155.822</v>
       </c>
       <c r="AJ18">
-        <v>-2643.42</v>
-      </c>
-      <c r="AK18" s="3">
-        <v>1.85944</v>
-      </c>
-      <c r="AL18" s="4">
-        <v>248.276</v>
-      </c>
-      <c r="AM18" s="4">
-        <v>235.713</v>
+        <v>153.609</v>
+      </c>
+      <c r="AK18">
+        <v>49.779</v>
+      </c>
+      <c r="AL18" s="2">
+        <v>18.2614</v>
+      </c>
+      <c r="AM18" s="2">
+        <v>14.8948</v>
       </c>
       <c r="AN18">
-        <v>1.63125</v>
+        <v>22.1779</v>
       </c>
       <c r="AO18">
-        <v>1.71819</v>
+        <v>27.1907</v>
       </c>
       <c r="AP18">
-        <v>68.21329999999999</v>
+        <v>68.2158</v>
       </c>
       <c r="AQ18">
-        <v>68.2667</v>
+        <v>68.27070000000001</v>
       </c>
       <c r="AR18">
-        <v>50.0054</v>
-      </c>
-      <c r="AS18" s="3">
-        <v>5.04591</v>
-      </c>
-      <c r="AT18" s="3">
-        <v>4.18858</v>
+        <v>50.0055</v>
+      </c>
+      <c r="AS18" s="2">
+        <v>5.04481</v>
+      </c>
+      <c r="AT18" s="2">
+        <v>4.18579</v>
       </c>
       <c r="AU18">
-        <v>80.26300000000001</v>
+        <v>80.28060000000001</v>
       </c>
       <c r="AV18">
-        <v>96.6915</v>
+        <v>96.756</v>
       </c>
       <c r="AW18">
-        <v>80.14060000000001</v>
+        <v>80.1427</v>
       </c>
       <c r="AX18">
-        <v>79.3197</v>
+        <v>79.3242</v>
       </c>
       <c r="AY18">
-        <v>49.9179</v>
-      </c>
-      <c r="AZ18" s="3">
-        <v>10.5841</v>
-      </c>
-      <c r="BA18" s="3">
-        <v>6.32298</v>
+        <v>49.9181</v>
+      </c>
+      <c r="AZ18" s="2">
+        <v>10.5831</v>
+      </c>
+      <c r="BA18" s="2">
+        <v>6.322179999999999</v>
       </c>
       <c r="BB18">
-        <v>38.2649</v>
+        <v>38.2684</v>
       </c>
       <c r="BC18">
-        <v>64.05200000000001</v>
-      </c>
-      <c r="BD18" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE18" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF18" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG18" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH18" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI18" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ18" s="5" t="s">
+        <v>64.06019999999999</v>
+      </c>
+      <c r="BD18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ18" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK18">
-        <v>113.56</v>
+        <v>113.562</v>
       </c>
       <c r="BL18">
-        <v>112.727</v>
+        <v>112.732</v>
       </c>
       <c r="BM18">
-        <v>49.9167</v>
-      </c>
-      <c r="BN18" s="3">
-        <v>23.7827</v>
-      </c>
-      <c r="BO18" s="3">
-        <v>14.3565</v>
+        <v>49.9171</v>
+      </c>
+      <c r="BN18" s="2">
+        <v>23.7781</v>
+      </c>
+      <c r="BO18" s="2">
+        <v>14.3587</v>
       </c>
       <c r="BP18">
-        <v>17.0292</v>
+        <v>17.0325</v>
       </c>
       <c r="BQ18">
-        <v>28.2103</v>
+        <v>28.2058</v>
       </c>
     </row>
     <row r="19" spans="1:69">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F19" t="s">
         <v>107</v>
@@ -4686,171 +4672,171 @@
         <v>112</v>
       </c>
       <c r="T19">
-        <v>208.152</v>
+        <v>183.007</v>
       </c>
       <c r="U19">
-        <v>179.236</v>
+        <v>169.129</v>
       </c>
       <c r="V19">
-        <v>193.694</v>
-      </c>
-      <c r="W19" s="2">
-        <v>47.0965</v>
-      </c>
-      <c r="X19" s="3">
-        <v>15.5943</v>
-      </c>
-      <c r="Y19" s="3">
-        <v>17.7163</v>
+        <v>176.068</v>
+      </c>
+      <c r="W19">
+        <v>48.6119</v>
+      </c>
+      <c r="X19" s="2">
+        <v>15.5597</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>17.6523</v>
       </c>
       <c r="Z19">
-        <v>40.4249</v>
+        <v>40.5149</v>
       </c>
       <c r="AA19">
-        <v>35.5831</v>
+        <v>35.7121</v>
       </c>
       <c r="AB19">
-        <v>140.306</v>
+        <v>130.849</v>
       </c>
       <c r="AC19">
-        <v>144.361</v>
+        <v>126.676</v>
       </c>
       <c r="AD19">
-        <v>50.4062</v>
-      </c>
-      <c r="AE19" s="4">
-        <v>230.926</v>
-      </c>
-      <c r="AF19" s="4">
-        <v>234.409</v>
+        <v>49.5824</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>13.1549</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>14.6478</v>
       </c>
       <c r="AG19">
-        <v>2.14354</v>
+        <v>37.6285</v>
       </c>
       <c r="AH19">
-        <v>2.11169</v>
+        <v>33.7936</v>
       </c>
       <c r="AI19">
-        <v>-1853.09</v>
+        <v>131.235</v>
       </c>
       <c r="AJ19">
-        <v>-1754.17</v>
-      </c>
-      <c r="AK19" s="4">
-        <v>88.9988</v>
-      </c>
-      <c r="AL19" s="4">
-        <v>231.533</v>
-      </c>
-      <c r="AM19" s="4">
-        <v>235.06</v>
+        <v>127.061</v>
+      </c>
+      <c r="AK19">
+        <v>49.5823</v>
+      </c>
+      <c r="AL19" s="2">
+        <v>13.1667</v>
+      </c>
+      <c r="AM19" s="2">
+        <v>14.6564</v>
       </c>
       <c r="AN19">
-        <v>2.13792</v>
+        <v>37.5949</v>
       </c>
       <c r="AO19">
-        <v>2.10585</v>
+        <v>33.7737</v>
       </c>
       <c r="AP19">
-        <v>57.919</v>
+        <v>57.9216</v>
       </c>
       <c r="AQ19">
-        <v>58.566</v>
+        <v>58.5737</v>
       </c>
       <c r="AR19">
-        <v>50.0648</v>
-      </c>
-      <c r="AS19" s="3">
-        <v>4.65291</v>
-      </c>
-      <c r="AT19" s="3">
-        <v>5.08376</v>
+        <v>50.065</v>
+      </c>
+      <c r="AS19" s="2">
+        <v>4.656140000000001</v>
+      </c>
+      <c r="AT19" s="2">
+        <v>5.08541</v>
       </c>
       <c r="AU19">
-        <v>101.614</v>
+        <v>101.543</v>
       </c>
       <c r="AV19">
-        <v>93.002</v>
+        <v>92.97190000000001</v>
       </c>
       <c r="AW19">
-        <v>67.26129999999999</v>
+        <v>67.26389999999999</v>
       </c>
       <c r="AX19">
-        <v>67.95570000000001</v>
+        <v>67.96390000000001</v>
       </c>
       <c r="AY19">
         <v>50.0696</v>
       </c>
-      <c r="AZ19" s="3">
-        <v>7.463920000000001</v>
-      </c>
-      <c r="BA19" s="3">
-        <v>7.312539999999999</v>
+      <c r="AZ19" s="2">
+        <v>7.463120000000001</v>
+      </c>
+      <c r="BA19" s="2">
+        <v>7.313250000000001</v>
       </c>
       <c r="BB19">
-        <v>63.3447</v>
+        <v>63.3515</v>
       </c>
       <c r="BC19">
-        <v>64.6561</v>
-      </c>
-      <c r="BD19" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE19" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF19" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG19" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH19" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI19" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ19" s="5" t="s">
+        <v>64.6498</v>
+      </c>
+      <c r="BD19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ19" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK19">
-        <v>93.67590000000001</v>
+        <v>93.68089999999999</v>
       </c>
       <c r="BL19">
-        <v>94.5771</v>
+        <v>94.586</v>
       </c>
       <c r="BM19">
         <v>50.0903</v>
       </c>
-      <c r="BN19" s="3">
-        <v>15.8103</v>
-      </c>
-      <c r="BO19" s="3">
-        <v>21.3808</v>
+      <c r="BN19" s="2">
+        <v>15.8094</v>
+      </c>
+      <c r="BO19" s="2">
+        <v>21.3811</v>
       </c>
       <c r="BP19">
-        <v>31.3087</v>
+        <v>31.3104</v>
       </c>
       <c r="BQ19">
-        <v>23.1516</v>
+        <v>23.1513</v>
       </c>
     </row>
     <row r="20" spans="1:69">
       <c r="A20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" t="s">
         <v>134</v>
-      </c>
-      <c r="B20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" t="s">
-        <v>133</v>
       </c>
       <c r="F20" t="s">
         <v>107</v>
@@ -4895,171 +4881,171 @@
         <v>112</v>
       </c>
       <c r="T20">
-        <v>189.033</v>
+        <v>172.474</v>
       </c>
       <c r="U20">
-        <v>171.47</v>
+        <v>161.901</v>
       </c>
       <c r="V20">
-        <v>180.252</v>
-      </c>
-      <c r="W20" s="2">
-        <v>48.2436</v>
-      </c>
-      <c r="X20" s="3">
-        <v>14.2376</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>16.2</v>
+        <v>167.188</v>
+      </c>
+      <c r="W20">
+        <v>48.9424</v>
+      </c>
+      <c r="X20" s="2">
+        <v>14.2073</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>16.1704</v>
       </c>
       <c r="Z20">
-        <v>44.277</v>
+        <v>44.3716</v>
       </c>
       <c r="AA20">
-        <v>38.9137</v>
+        <v>38.9849</v>
       </c>
       <c r="AB20">
-        <v>129.231</v>
+        <v>121.956</v>
       </c>
       <c r="AC20">
-        <v>131.405</v>
+        <v>120.208</v>
       </c>
       <c r="AD20">
-        <v>50.2177</v>
-      </c>
-      <c r="AE20" s="4">
-        <v>228.054</v>
-      </c>
-      <c r="AF20" s="4">
-        <v>230.978</v>
+        <v>49.8252</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>11.8254</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>13.1583</v>
       </c>
       <c r="AG20">
-        <v>2.17054</v>
+        <v>41.859</v>
       </c>
       <c r="AH20">
-        <v>2.14306</v>
+        <v>37.6188</v>
       </c>
       <c r="AI20">
-        <v>133.193</v>
+        <v>122.342</v>
       </c>
       <c r="AJ20">
-        <v>140.406</v>
+        <v>120.593</v>
       </c>
       <c r="AK20">
-        <v>50.7217</v>
-      </c>
-      <c r="AL20" s="4">
-        <v>228.718</v>
-      </c>
-      <c r="AM20" s="4">
-        <v>231.611</v>
+        <v>49.8251</v>
+      </c>
+      <c r="AL20" s="2">
+        <v>11.8385</v>
+      </c>
+      <c r="AM20" s="2">
+        <v>13.1678</v>
       </c>
       <c r="AN20">
-        <v>2.16424</v>
+        <v>41.8127</v>
       </c>
       <c r="AO20">
-        <v>2.13721</v>
+        <v>37.5917</v>
       </c>
       <c r="AP20">
-        <v>53.8477</v>
+        <v>53.8515</v>
       </c>
       <c r="AQ20">
-        <v>54.2863</v>
+        <v>54.2953</v>
       </c>
       <c r="AR20">
-        <v>50.0437</v>
-      </c>
-      <c r="AS20" s="3">
-        <v>3.56716</v>
-      </c>
-      <c r="AT20" s="3">
-        <v>3.906670000000001</v>
+        <v>50.0445</v>
+      </c>
+      <c r="AS20" s="2">
+        <v>3.56691</v>
+      </c>
+      <c r="AT20" s="2">
+        <v>3.90578</v>
       </c>
       <c r="AU20">
-        <v>132.543</v>
+        <v>132.552</v>
       </c>
       <c r="AV20">
-        <v>121.024</v>
+        <v>121.051</v>
       </c>
       <c r="AW20">
-        <v>62.6633</v>
+        <v>62.6675</v>
       </c>
       <c r="AX20">
-        <v>63.3961</v>
+        <v>63.4023</v>
       </c>
       <c r="AY20">
-        <v>50.0732</v>
-      </c>
-      <c r="AZ20" s="3">
-        <v>6.77427</v>
-      </c>
-      <c r="BA20" s="3">
-        <v>6.690580000000001</v>
+        <v>50.0735</v>
+      </c>
+      <c r="AZ20" s="2">
+        <v>6.77488</v>
+      </c>
+      <c r="BA20" s="2">
+        <v>6.69046</v>
       </c>
       <c r="BB20">
-        <v>69.79349999999999</v>
+        <v>69.7872</v>
       </c>
       <c r="BC20">
-        <v>70.6666</v>
-      </c>
-      <c r="BD20" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE20" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF20" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG20" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH20" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI20" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ20" s="5" t="s">
+        <v>70.6678</v>
+      </c>
+      <c r="BD20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ20" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK20">
-        <v>87.74140000000001</v>
+        <v>87.7457</v>
       </c>
       <c r="BL20">
-        <v>90.0334</v>
+        <v>90.0407</v>
       </c>
       <c r="BM20">
-        <v>50.2291</v>
-      </c>
-      <c r="BN20" s="3">
+        <v>50.2296</v>
+      </c>
+      <c r="BN20" s="2">
         <v>14.3351</v>
       </c>
-      <c r="BO20" s="3">
-        <v>19.688</v>
+      <c r="BO20" s="2">
+        <v>19.6878</v>
       </c>
       <c r="BP20">
-        <v>34.5306</v>
+        <v>34.5307</v>
       </c>
       <c r="BQ20">
-        <v>25.1422</v>
+        <v>25.1425</v>
       </c>
     </row>
     <row r="21" spans="1:69">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F21" t="s">
         <v>107</v>
@@ -5101,174 +5087,174 @@
         <v>81</v>
       </c>
       <c r="S21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="T21">
-        <v>243.594</v>
+        <v>197.619</v>
       </c>
       <c r="U21">
-        <v>192.877</v>
+        <v>182.189</v>
       </c>
       <c r="V21">
-        <v>218.235</v>
-      </c>
-      <c r="W21" s="3">
-        <v>44.8935</v>
-      </c>
-      <c r="X21" s="3">
-        <v>16.8906</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>19.0003</v>
+        <v>189.904</v>
+      </c>
+      <c r="W21" s="4">
+        <v>48.4581</v>
+      </c>
+      <c r="X21" s="2">
+        <v>16.8452</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>18.9394</v>
       </c>
       <c r="Z21">
-        <v>37.3226</v>
+        <v>37.4231</v>
       </c>
       <c r="AA21">
-        <v>33.1784</v>
+        <v>33.285</v>
       </c>
       <c r="AB21">
-        <v>-2265.03</v>
+        <v>142.529</v>
       </c>
       <c r="AC21">
-        <v>-2748.14</v>
-      </c>
-      <c r="AD21" s="3">
-        <v>17.4571</v>
-      </c>
-      <c r="AE21" s="4">
-        <v>234.504</v>
-      </c>
-      <c r="AF21" s="4">
-        <v>238.532</v>
+        <v>137.672</v>
+      </c>
+      <c r="AD21">
+        <v>49.5143</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>14.5935</v>
+      </c>
+      <c r="AF21" s="2">
+        <v>16.1906</v>
       </c>
       <c r="AG21">
-        <v>2.11084</v>
+        <v>33.9193</v>
       </c>
       <c r="AH21">
-        <v>2.07519</v>
+        <v>30.5732</v>
       </c>
       <c r="AI21">
-        <v>-1753.66</v>
+        <v>142.915</v>
       </c>
       <c r="AJ21">
-        <v>-2162.87</v>
-      </c>
-      <c r="AK21" s="4">
-        <v>91.2153</v>
-      </c>
-      <c r="AL21" s="4">
-        <v>235.133</v>
-      </c>
-      <c r="AM21" s="4">
-        <v>239.272</v>
+        <v>138.057</v>
+      </c>
+      <c r="AK21">
+        <v>49.5142</v>
+      </c>
+      <c r="AL21" s="2">
+        <v>14.6033</v>
+      </c>
+      <c r="AM21" s="2">
+        <v>16.1982</v>
       </c>
       <c r="AN21">
-        <v>2.10519</v>
+        <v>33.8963</v>
       </c>
       <c r="AO21">
-        <v>2.06878</v>
+        <v>30.5589</v>
       </c>
       <c r="AP21">
-        <v>65.08840000000001</v>
+        <v>65.0933</v>
       </c>
       <c r="AQ21">
-        <v>66.0626</v>
+        <v>66.08210000000001</v>
       </c>
       <c r="AR21">
-        <v>50.0976</v>
-      </c>
-      <c r="AS21" s="3">
-        <v>5.37853</v>
-      </c>
-      <c r="AT21" s="3">
-        <v>5.87506</v>
+        <v>50.0989</v>
+      </c>
+      <c r="AS21" s="2">
+        <v>5.38147</v>
+      </c>
+      <c r="AT21" s="2">
+        <v>5.87391</v>
       </c>
       <c r="AU21">
-        <v>87.905</v>
+        <v>87.8571</v>
       </c>
       <c r="AV21">
-        <v>80.47580000000001</v>
+        <v>80.4915</v>
       </c>
       <c r="AW21">
-        <v>74.5821</v>
+        <v>74.5869</v>
       </c>
       <c r="AX21">
-        <v>75.53279999999999</v>
+        <v>75.5519</v>
       </c>
       <c r="AY21">
-        <v>50.0952</v>
-      </c>
-      <c r="AZ21" s="3">
-        <v>7.57175</v>
-      </c>
-      <c r="BA21" s="3">
-        <v>7.54109</v>
+        <v>50.0965</v>
+      </c>
+      <c r="AZ21" s="2">
+        <v>7.5718</v>
+      </c>
+      <c r="BA21" s="2">
+        <v>7.54243</v>
       </c>
       <c r="BB21">
-        <v>62.4427</v>
+        <v>62.4422</v>
       </c>
       <c r="BC21">
-        <v>62.6965</v>
-      </c>
-      <c r="BD21" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE21" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF21" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG21" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH21" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI21" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ21" s="5" t="s">
+        <v>62.6854</v>
+      </c>
+      <c r="BD21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ21" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK21">
-        <v>101.766</v>
+        <v>101.771</v>
       </c>
       <c r="BL21">
-        <v>102.786</v>
+        <v>102.807</v>
       </c>
       <c r="BM21">
-        <v>50.1021</v>
-      </c>
-      <c r="BN21" s="3">
-        <v>16.0484</v>
-      </c>
-      <c r="BO21" s="3">
-        <v>21.8274</v>
+        <v>50.1036</v>
+      </c>
+      <c r="BN21" s="2">
+        <v>16.0453</v>
+      </c>
+      <c r="BO21" s="2">
+        <v>21.8264</v>
       </c>
       <c r="BP21">
-        <v>30.8442</v>
+        <v>30.8501</v>
       </c>
       <c r="BQ21">
-        <v>22.6779</v>
+        <v>22.6789</v>
       </c>
     </row>
     <row r="22" spans="1:69">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F22" t="s">
         <v>107</v>
@@ -5310,174 +5296,174 @@
         <v>81</v>
       </c>
       <c r="S22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="T22">
-        <v>209.704</v>
+        <v>185.968</v>
       </c>
       <c r="U22">
-        <v>185.34</v>
+        <v>174.414</v>
       </c>
       <c r="V22">
-        <v>197.522</v>
-      </c>
-      <c r="W22" s="2">
-        <v>47.5544</v>
-      </c>
-      <c r="X22" s="3">
-        <v>15.4446</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>17.4117</v>
+        <v>180.191</v>
+      </c>
+      <c r="W22">
+        <v>48.8448</v>
+      </c>
+      <c r="X22" s="2">
+        <v>15.4079</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>17.3563</v>
       </c>
       <c r="Z22">
-        <v>40.817</v>
+        <v>40.914</v>
       </c>
       <c r="AA22">
-        <v>36.2055</v>
+        <v>36.321</v>
       </c>
       <c r="AB22">
-        <v>142.194</v>
+        <v>132.678</v>
       </c>
       <c r="AC22">
-        <v>148.567</v>
+        <v>130.626</v>
       </c>
       <c r="AD22">
-        <v>50.6375</v>
-      </c>
-      <c r="AE22" s="4">
-        <v>231.322</v>
-      </c>
-      <c r="AF22" s="4">
-        <v>234.649</v>
+        <v>49.7949</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>13.1472</v>
+      </c>
+      <c r="AF22" s="2">
+        <v>14.5908</v>
       </c>
       <c r="AG22">
-        <v>2.13988</v>
+        <v>37.6506</v>
       </c>
       <c r="AH22">
-        <v>2.10953</v>
+        <v>33.9256</v>
       </c>
       <c r="AI22">
-        <v>-2229.34</v>
+        <v>133.064</v>
       </c>
       <c r="AJ22">
-        <v>-2714.07</v>
-      </c>
-      <c r="AK22" s="3">
-        <v>28.9592</v>
-      </c>
-      <c r="AL22" s="4">
-        <v>231.924</v>
-      </c>
-      <c r="AM22" s="4">
-        <v>235.293</v>
+        <v>131.011</v>
+      </c>
+      <c r="AK22">
+        <v>49.7948</v>
+      </c>
+      <c r="AL22" s="2">
+        <v>13.1582</v>
+      </c>
+      <c r="AM22" s="2">
+        <v>14.5994</v>
       </c>
       <c r="AN22">
-        <v>2.13432</v>
+        <v>37.6192</v>
       </c>
       <c r="AO22">
-        <v>2.10376</v>
+        <v>33.9055</v>
       </c>
       <c r="AP22">
-        <v>60.5118</v>
+        <v>60.5253</v>
       </c>
       <c r="AQ22">
-        <v>61.2206</v>
+        <v>61.2304</v>
       </c>
       <c r="AR22">
-        <v>50.0709</v>
-      </c>
-      <c r="AS22" s="3">
-        <v>4.05574</v>
-      </c>
-      <c r="AT22" s="3">
-        <v>4.45072</v>
+        <v>50.0706</v>
+      </c>
+      <c r="AS22" s="2">
+        <v>4.05697</v>
+      </c>
+      <c r="AT22" s="2">
+        <v>4.45163</v>
       </c>
       <c r="AU22">
-        <v>116.576</v>
+        <v>116.54</v>
       </c>
       <c r="AV22">
-        <v>106.23</v>
+        <v>106.208</v>
       </c>
       <c r="AW22">
-        <v>69.4248</v>
+        <v>69.438</v>
       </c>
       <c r="AX22">
-        <v>70.47240000000001</v>
+        <v>70.4821</v>
       </c>
       <c r="AY22">
-        <v>50.1047</v>
-      </c>
-      <c r="AZ22" s="3">
-        <v>6.8636</v>
-      </c>
-      <c r="BA22" s="3">
-        <v>6.91408</v>
+        <v>50.1045</v>
+      </c>
+      <c r="AZ22" s="2">
+        <v>6.86367</v>
+      </c>
+      <c r="BA22" s="2">
+        <v>6.91451</v>
       </c>
       <c r="BB22">
-        <v>68.8852</v>
+        <v>68.8844</v>
       </c>
       <c r="BC22">
-        <v>68.3822</v>
-      </c>
-      <c r="BD22" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE22" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF22" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG22" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH22" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI22" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ22" s="5" t="s">
+        <v>68.3779</v>
+      </c>
+      <c r="BD22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ22" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK22">
-        <v>95.18260000000001</v>
+        <v>95.19540000000001</v>
       </c>
       <c r="BL22">
-        <v>97.9169</v>
+        <v>97.9251</v>
       </c>
       <c r="BM22">
-        <v>50.2733</v>
-      </c>
-      <c r="BN22" s="3">
-        <v>14.5414</v>
-      </c>
-      <c r="BO22" s="3">
-        <v>20.1025</v>
+        <v>50.273</v>
+      </c>
+      <c r="BN22" s="2">
+        <v>14.5413</v>
+      </c>
+      <c r="BO22" s="2">
+        <v>20.1018</v>
       </c>
       <c r="BP22">
-        <v>34.0408</v>
+        <v>34.0409</v>
       </c>
       <c r="BQ22">
-        <v>24.6238</v>
+        <v>24.6247</v>
       </c>
     </row>
     <row r="23" spans="1:69">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F23" t="s">
         <v>107</v>
@@ -5522,171 +5508,171 @@
         <v>112</v>
       </c>
       <c r="T23">
-        <v>348.044</v>
+        <v>208.568</v>
       </c>
       <c r="U23">
-        <v>218.449</v>
+        <v>196.345</v>
       </c>
       <c r="V23">
-        <v>283.247</v>
-      </c>
-      <c r="W23" s="3">
-        <v>37.5241</v>
-      </c>
-      <c r="X23" s="3">
-        <v>17.6031</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>20.921</v>
+        <v>202.457</v>
+      </c>
+      <c r="W23">
+        <v>48.7771</v>
+      </c>
+      <c r="X23" s="2">
+        <v>17.5732</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>20.8568</v>
       </c>
       <c r="Z23">
-        <v>30.6764</v>
+        <v>30.7286</v>
       </c>
       <c r="AA23">
-        <v>25.8114</v>
+        <v>25.8908</v>
       </c>
       <c r="AB23">
-        <v>159.96</v>
-      </c>
-      <c r="AC23" s="4">
-        <v>351.626</v>
-      </c>
-      <c r="AD23" s="4">
-        <v>69.1675</v>
-      </c>
-      <c r="AE23" s="4">
-        <v>234.745</v>
-      </c>
-      <c r="AF23" s="4">
-        <v>242.581</v>
+        <v>145.792</v>
+      </c>
+      <c r="AC23">
+        <v>145.344</v>
+      </c>
+      <c r="AD23">
+        <v>49.9552</v>
+      </c>
+      <c r="AE23" s="2">
+        <v>14.9172</v>
+      </c>
+      <c r="AF23" s="2">
+        <v>17.6099</v>
       </c>
       <c r="AG23">
-        <v>1.72528</v>
+        <v>27.1499</v>
       </c>
       <c r="AH23">
-        <v>1.66954</v>
+        <v>22.9984</v>
       </c>
       <c r="AI23">
-        <v>-2651.25</v>
+        <v>146.177</v>
       </c>
       <c r="AJ23">
-        <v>-2645.6</v>
-      </c>
-      <c r="AK23" s="4">
-        <v>55.6751</v>
-      </c>
-      <c r="AL23" s="4">
-        <v>235.435</v>
-      </c>
-      <c r="AM23" s="4">
-        <v>243.698</v>
+        <v>145.728</v>
+      </c>
+      <c r="AK23">
+        <v>49.9551</v>
+      </c>
+      <c r="AL23" s="2">
+        <v>14.927</v>
+      </c>
+      <c r="AM23" s="2">
+        <v>17.6159</v>
       </c>
       <c r="AN23">
-        <v>1.72022</v>
+        <v>27.1321</v>
       </c>
       <c r="AO23">
-        <v>1.6619</v>
+        <v>22.9906</v>
       </c>
       <c r="AP23">
-        <v>63.1839</v>
+        <v>63.19349999999999</v>
       </c>
       <c r="AQ23">
-        <v>63.7745</v>
+        <v>63.78720000000001</v>
       </c>
       <c r="AR23">
-        <v>50.0592</v>
-      </c>
-      <c r="AS23" s="3">
-        <v>4.79322</v>
-      </c>
-      <c r="AT23" s="3">
-        <v>5.33223</v>
+        <v>50.0593</v>
+      </c>
+      <c r="AS23" s="2">
+        <v>4.79598</v>
+      </c>
+      <c r="AT23" s="2">
+        <v>5.33099</v>
       </c>
       <c r="AU23">
-        <v>84.4943</v>
+        <v>84.4457</v>
       </c>
       <c r="AV23">
-        <v>75.9532</v>
+        <v>75.9708</v>
       </c>
       <c r="AW23">
-        <v>74.13930000000001</v>
+        <v>74.15039999999999</v>
       </c>
       <c r="AX23">
-        <v>74.97490000000001</v>
+        <v>74.98700000000001</v>
       </c>
       <c r="AY23">
-        <v>50.0836</v>
-      </c>
-      <c r="AZ23" s="3">
-        <v>8.09897</v>
-      </c>
-      <c r="BA23" s="3">
-        <v>8.619240000000001</v>
+        <v>50.0837</v>
+      </c>
+      <c r="AZ23" s="2">
+        <v>8.09937</v>
+      </c>
+      <c r="BA23" s="2">
+        <v>8.618459999999999</v>
       </c>
       <c r="BB23">
-        <v>50.0064</v>
+        <v>50.0039</v>
       </c>
       <c r="BC23">
-        <v>46.9879</v>
-      </c>
-      <c r="BD23" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE23" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF23" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG23" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH23" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI23" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ23" s="5" t="s">
+        <v>46.9921</v>
+      </c>
+      <c r="BD23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ23" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK23">
-        <v>104.151</v>
+        <v>104.161</v>
       </c>
       <c r="BL23">
-        <v>107.718</v>
+        <v>107.728</v>
       </c>
       <c r="BM23">
-        <v>50.3568</v>
-      </c>
-      <c r="BN23" s="3">
-        <v>14.6603</v>
-      </c>
-      <c r="BO23" s="3">
-        <v>25.1779</v>
+        <v>50.3566</v>
+      </c>
+      <c r="BN23" s="2">
+        <v>14.6674</v>
+      </c>
+      <c r="BO23" s="2">
+        <v>25.1786</v>
       </c>
       <c r="BP23">
-        <v>27.6257</v>
+        <v>27.6123</v>
       </c>
       <c r="BQ23">
-        <v>16.0855</v>
+        <v>16.0851</v>
       </c>
     </row>
     <row r="24" spans="1:69">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F24" t="s">
         <v>107</v>
@@ -5731,171 +5717,171 @@
         <v>112</v>
       </c>
       <c r="T24">
-        <v>254.4</v>
+        <v>205.847</v>
       </c>
       <c r="U24">
-        <v>226.604</v>
+        <v>196.809</v>
       </c>
       <c r="V24">
-        <v>240.502</v>
-      </c>
-      <c r="W24" s="2">
-        <v>47.1981</v>
-      </c>
-      <c r="X24" s="3">
-        <v>16.3129</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>19.7209</v>
+        <v>201.328</v>
+      </c>
+      <c r="W24">
+        <v>49.0964</v>
+      </c>
+      <c r="X24" s="2">
+        <v>16.3046</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>19.707</v>
       </c>
       <c r="Z24">
-        <v>33.1027</v>
+        <v>33.1195</v>
       </c>
       <c r="AA24">
-        <v>27.3822</v>
+        <v>27.4015</v>
       </c>
       <c r="AB24">
-        <v>-1845.95</v>
+        <v>142.108</v>
       </c>
       <c r="AC24">
-        <v>-1674.62</v>
-      </c>
-      <c r="AD24" s="4">
-        <v>98.9547</v>
-      </c>
-      <c r="AE24" s="4">
-        <v>232.024</v>
-      </c>
-      <c r="AF24" s="4">
-        <v>239.554</v>
+        <v>144.236</v>
+      </c>
+      <c r="AD24">
+        <v>50.2128</v>
+      </c>
+      <c r="AE24" s="2">
+        <v>13.6977</v>
+      </c>
+      <c r="AF24" s="2">
+        <v>16.4781</v>
       </c>
       <c r="AG24">
-        <v>1.74551</v>
+        <v>29.5669</v>
       </c>
       <c r="AH24">
-        <v>1.69064</v>
+        <v>24.578</v>
       </c>
       <c r="AI24">
-        <v>166.473</v>
-      </c>
-      <c r="AJ24" s="4">
-        <v>352.391</v>
-      </c>
-      <c r="AK24" s="4">
-        <v>68.59520000000001</v>
-      </c>
-      <c r="AL24" s="4">
-        <v>232.714</v>
-      </c>
-      <c r="AM24" s="4">
-        <v>240.527</v>
+        <v>142.492</v>
+      </c>
+      <c r="AJ24">
+        <v>144.62</v>
+      </c>
+      <c r="AK24">
+        <v>50.2128</v>
+      </c>
+      <c r="AL24" s="2">
+        <v>13.7089</v>
+      </c>
+      <c r="AM24" s="2">
+        <v>16.4853</v>
       </c>
       <c r="AN24">
-        <v>1.74034</v>
+        <v>29.5428</v>
       </c>
       <c r="AO24">
-        <v>1.6838</v>
+        <v>24.5674</v>
       </c>
       <c r="AP24">
-        <v>61.0731</v>
+        <v>61.0814</v>
       </c>
       <c r="AQ24">
-        <v>61.38760000000001</v>
+        <v>61.39700000000001</v>
       </c>
       <c r="AR24">
-        <v>50.0314</v>
-      </c>
-      <c r="AS24" s="3">
-        <v>3.88969</v>
-      </c>
-      <c r="AT24" s="3">
-        <v>4.33118</v>
+        <v>50.0316</v>
+      </c>
+      <c r="AS24" s="2">
+        <v>3.88831</v>
+      </c>
+      <c r="AT24" s="2">
+        <v>4.33052</v>
       </c>
       <c r="AU24">
-        <v>104.122</v>
+        <v>104.158</v>
       </c>
       <c r="AV24">
-        <v>93.5081</v>
+        <v>93.5224</v>
       </c>
       <c r="AW24">
-        <v>71.8903</v>
+        <v>71.8967</v>
       </c>
       <c r="AX24">
-        <v>72.64660000000001</v>
+        <v>72.6546</v>
       </c>
       <c r="AY24">
         <v>50.0757</v>
       </c>
-      <c r="AZ24" s="3">
-        <v>7.40981</v>
-      </c>
-      <c r="BA24" s="3">
-        <v>8.091949999999999</v>
+      <c r="AZ24" s="2">
+        <v>7.40983</v>
+      </c>
+      <c r="BA24" s="2">
+        <v>8.091379999999999</v>
       </c>
       <c r="BB24">
-        <v>54.6573</v>
+        <v>54.6571</v>
       </c>
       <c r="BC24">
-        <v>50.0497</v>
-      </c>
-      <c r="BD24" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE24" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF24" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG24" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH24" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI24" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ24" s="5" t="s">
+        <v>50.0532</v>
+      </c>
+      <c r="BD24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ24" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK24">
-        <v>102.017</v>
+        <v>102.026</v>
       </c>
       <c r="BL24">
-        <v>106.794</v>
+        <v>106.8</v>
       </c>
       <c r="BM24">
-        <v>50.4776</v>
-      </c>
-      <c r="BN24" s="3">
-        <v>13.6376</v>
-      </c>
-      <c r="BO24" s="3">
-        <v>23.6657</v>
+        <v>50.4774</v>
+      </c>
+      <c r="BN24" s="2">
+        <v>13.6386</v>
+      </c>
+      <c r="BO24" s="2">
+        <v>23.666</v>
       </c>
       <c r="BP24">
-        <v>29.6973</v>
+        <v>29.6952</v>
       </c>
       <c r="BQ24">
-        <v>17.1133</v>
+        <v>17.1132</v>
       </c>
     </row>
     <row r="25" spans="1:69">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F25" t="s">
         <v>107</v>
@@ -5937,174 +5923,174 @@
         <v>81</v>
       </c>
       <c r="S25" t="s">
-        <v>123</v>
-      </c>
-      <c r="T25" s="4">
-        <v>428.555</v>
+        <v>124</v>
+      </c>
+      <c r="T25">
+        <v>222.629</v>
       </c>
       <c r="U25">
-        <v>232.227</v>
+        <v>209.129</v>
       </c>
       <c r="V25">
-        <v>330.391</v>
-      </c>
-      <c r="W25" s="3">
-        <v>30.3902</v>
-      </c>
-      <c r="X25" s="3">
-        <v>18.8572</v>
-      </c>
-      <c r="Y25" s="3">
-        <v>22.1844</v>
+        <v>215.879</v>
+      </c>
+      <c r="W25">
+        <v>48.6501</v>
+      </c>
+      <c r="X25" s="2">
+        <v>18.8119</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>22.1218</v>
       </c>
       <c r="Z25">
-        <v>28.6363</v>
+        <v>28.7053</v>
       </c>
       <c r="AA25">
-        <v>24.3415</v>
+        <v>24.4103</v>
       </c>
       <c r="AB25">
-        <v>-821.8000000000001</v>
+        <v>156.962</v>
       </c>
       <c r="AC25">
-        <v>-635.8630000000001</v>
-      </c>
-      <c r="AD25" s="4">
-        <v>68.5889</v>
-      </c>
-      <c r="AE25" s="4">
-        <v>238.511</v>
-      </c>
-      <c r="AF25" s="4">
-        <v>248.038</v>
+        <v>156.107</v>
+      </c>
+      <c r="AD25">
+        <v>49.9144</v>
+      </c>
+      <c r="AE25" s="2">
+        <v>16.3501</v>
+      </c>
+      <c r="AF25" s="2">
+        <v>19.1553</v>
       </c>
       <c r="AG25">
-        <v>1.69804</v>
+        <v>24.7704</v>
       </c>
       <c r="AH25">
-        <v>1.63281</v>
-      </c>
-      <c r="AI25" s="4">
-        <v>362.657</v>
-      </c>
-      <c r="AJ25" s="4">
-        <v>366.354</v>
+        <v>21.1429</v>
+      </c>
+      <c r="AI25">
+        <v>157.348</v>
+      </c>
+      <c r="AJ25">
+        <v>156.491</v>
       </c>
       <c r="AK25">
-        <v>50.3695</v>
-      </c>
-      <c r="AL25" s="4">
-        <v>239.286</v>
-      </c>
-      <c r="AM25" s="4">
-        <v>249.605</v>
+        <v>49.9143</v>
+      </c>
+      <c r="AL25" s="2">
+        <v>16.3588</v>
+      </c>
+      <c r="AM25" s="2">
+        <v>19.1611</v>
       </c>
       <c r="AN25">
-        <v>1.69254</v>
+        <v>24.7572</v>
       </c>
       <c r="AO25">
-        <v>1.62256</v>
+        <v>21.1366</v>
       </c>
       <c r="AP25">
-        <v>70.1833</v>
+        <v>70.1992</v>
       </c>
       <c r="AQ25">
-        <v>71.102</v>
+        <v>71.11739999999999</v>
       </c>
       <c r="AR25">
-        <v>50.0918</v>
-      </c>
-      <c r="AS25" s="3">
-        <v>5.42168</v>
-      </c>
-      <c r="AT25" s="3">
-        <v>6.042730000000001</v>
+        <v>50.0916</v>
+      </c>
+      <c r="AS25" s="2">
+        <v>5.422960000000001</v>
+      </c>
+      <c r="AT25" s="2">
+        <v>6.04493</v>
       </c>
       <c r="AU25">
-        <v>74.70010000000001</v>
+        <v>74.6825</v>
       </c>
       <c r="AV25">
-        <v>67.0227</v>
+        <v>66.9983</v>
       </c>
       <c r="AW25">
-        <v>81.2719</v>
+        <v>81.29000000000001</v>
       </c>
       <c r="AX25">
-        <v>82.399</v>
+        <v>82.41840000000001</v>
       </c>
       <c r="AY25">
         <v>50.1127</v>
       </c>
-      <c r="AZ25" s="3">
-        <v>8.230119999999999</v>
-      </c>
-      <c r="BA25" s="3">
-        <v>8.82183</v>
+      <c r="AZ25" s="2">
+        <v>8.231450000000001</v>
+      </c>
+      <c r="BA25" s="2">
+        <v>8.82278</v>
       </c>
       <c r="BB25">
-        <v>49.2095</v>
+        <v>49.2015</v>
       </c>
       <c r="BC25">
-        <v>45.9088</v>
-      </c>
-      <c r="BD25" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE25" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF25" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG25" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH25" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI25" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ25" s="5" t="s">
+        <v>45.9039</v>
+      </c>
+      <c r="BD25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ25" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK25">
-        <v>111.898</v>
+        <v>111.918</v>
       </c>
       <c r="BL25">
-        <v>115.78</v>
+        <v>115.801</v>
       </c>
       <c r="BM25">
         <v>50.3881</v>
       </c>
-      <c r="BN25" s="3">
-        <v>14.7837</v>
-      </c>
-      <c r="BO25" s="3">
-        <v>25.9014</v>
+      <c r="BN25" s="2">
+        <v>14.7803</v>
+      </c>
+      <c r="BO25" s="2">
+        <v>25.901</v>
       </c>
       <c r="BP25">
-        <v>27.395</v>
+        <v>27.4013</v>
       </c>
       <c r="BQ25">
-        <v>15.6362</v>
+        <v>15.6365</v>
       </c>
     </row>
     <row r="26" spans="1:69">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F26" t="s">
         <v>107</v>
@@ -6146,157 +6132,157 @@
         <v>81</v>
       </c>
       <c r="S26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="T26">
-        <v>308.332</v>
+        <v>219.128</v>
       </c>
       <c r="U26">
-        <v>245.136</v>
+        <v>209.381</v>
       </c>
       <c r="V26">
-        <v>276.734</v>
-      </c>
-      <c r="W26" s="3">
-        <v>43.7806</v>
-      </c>
-      <c r="X26" s="3">
-        <v>17.4721</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>20.9147</v>
+        <v>214.254</v>
+      </c>
+      <c r="W26">
+        <v>49.0243</v>
+      </c>
+      <c r="X26" s="2">
+        <v>17.4373</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>20.8621</v>
       </c>
       <c r="Z26">
-        <v>30.9064</v>
+        <v>30.9681</v>
       </c>
       <c r="AA26">
-        <v>25.8191</v>
+        <v>25.8843</v>
       </c>
       <c r="AB26">
-        <v>167.651</v>
-      </c>
-      <c r="AC26" s="4">
-        <v>361.94</v>
-      </c>
-      <c r="AD26" s="4">
-        <v>69.4301</v>
-      </c>
-      <c r="AE26" s="4">
-        <v>235.438</v>
-      </c>
-      <c r="AF26" s="4">
-        <v>244.393</v>
+        <v>152.579</v>
+      </c>
+      <c r="AC26">
+        <v>154.687</v>
+      </c>
+      <c r="AD26">
+        <v>50.2107</v>
+      </c>
+      <c r="AE26" s="2">
+        <v>15.0071</v>
+      </c>
+      <c r="AF26" s="2">
+        <v>17.9172</v>
       </c>
       <c r="AG26">
-        <v>1.7202</v>
+        <v>26.9872</v>
       </c>
       <c r="AH26">
-        <v>1.65717</v>
+        <v>22.6039</v>
       </c>
       <c r="AI26">
-        <v>-1692.43</v>
+        <v>152.964</v>
       </c>
       <c r="AJ26">
-        <v>-2154.77</v>
-      </c>
-      <c r="AK26" s="4">
-        <v>77.2011</v>
-      </c>
-      <c r="AL26" s="4">
-        <v>236.162</v>
-      </c>
-      <c r="AM26" s="4">
-        <v>245.71</v>
+        <v>155.071</v>
+      </c>
+      <c r="AK26">
+        <v>50.2106</v>
+      </c>
+      <c r="AL26" s="2">
+        <v>15.0166</v>
+      </c>
+      <c r="AM26" s="2">
+        <v>17.9237</v>
       </c>
       <c r="AN26">
-        <v>1.71492</v>
+        <v>26.9702</v>
       </c>
       <c r="AO26">
-        <v>1.64828</v>
+        <v>22.5958</v>
       </c>
       <c r="AP26">
-        <v>67.7204</v>
+        <v>67.73140000000001</v>
       </c>
       <c r="AQ26">
-        <v>68.2816</v>
+        <v>68.2914</v>
       </c>
       <c r="AR26">
-        <v>50.0562</v>
-      </c>
-      <c r="AS26" s="3">
-        <v>4.322410000000001</v>
-      </c>
-      <c r="AT26" s="3">
-        <v>4.8416</v>
+        <v>50.0558</v>
+      </c>
+      <c r="AS26" s="2">
+        <v>4.324520000000001</v>
+      </c>
+      <c r="AT26" s="2">
+        <v>4.84305</v>
       </c>
       <c r="AU26">
-        <v>93.6977</v>
+        <v>93.652</v>
       </c>
       <c r="AV26">
-        <v>83.65000000000001</v>
+        <v>83.6251</v>
       </c>
       <c r="AW26">
-        <v>78.62039999999999</v>
+        <v>78.6301</v>
       </c>
       <c r="AX26">
-        <v>79.711</v>
+        <v>79.72189999999999</v>
       </c>
       <c r="AY26">
-        <v>50.1091</v>
-      </c>
-      <c r="AZ26" s="3">
-        <v>7.54128</v>
-      </c>
-      <c r="BA26" s="3">
-        <v>8.2845</v>
+        <v>50.109</v>
+      </c>
+      <c r="AZ26" s="2">
+        <v>7.540540000000001</v>
+      </c>
+      <c r="BA26" s="2">
+        <v>8.28416</v>
       </c>
       <c r="BB26">
-        <v>53.7044</v>
+        <v>53.7097</v>
       </c>
       <c r="BC26">
-        <v>48.8865</v>
-      </c>
-      <c r="BD26" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE26" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF26" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG26" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH26" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI26" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ26" s="5" t="s">
+        <v>48.8885</v>
+      </c>
+      <c r="BD26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ26" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK26">
-        <v>109.345</v>
+        <v>109.353</v>
       </c>
       <c r="BL26">
-        <v>114.746</v>
+        <v>114.755</v>
       </c>
       <c r="BM26">
-        <v>50.5401</v>
-      </c>
-      <c r="BN26" s="3">
-        <v>13.7814</v>
-      </c>
-      <c r="BO26" s="3">
-        <v>24.2606</v>
+        <v>50.54</v>
+      </c>
+      <c r="BN26" s="2">
+        <v>13.7793</v>
+      </c>
+      <c r="BO26" s="2">
+        <v>24.26</v>
       </c>
       <c r="BP26">
-        <v>29.3874</v>
+        <v>29.3918</v>
       </c>
       <c r="BQ26">
-        <v>16.6937</v>
+        <v>16.6941</v>
       </c>
     </row>
     <row r="27" spans="1:69" s="1" customFormat="1">
@@ -6510,312 +6496,312 @@
     </row>
     <row r="28" spans="1:69" s="1" customFormat="1">
       <c r="S28" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="T28" s="1">
-        <v>163.623</v>
+        <v>166.748</v>
       </c>
       <c r="U28" s="1">
-        <v>151.744</v>
+        <v>153.917</v>
       </c>
       <c r="V28" s="1">
-        <v>157.684</v>
-      </c>
-      <c r="W28" s="3">
-        <v>30.3902</v>
-      </c>
-      <c r="X28" s="3">
-        <v>13.3605</v>
-      </c>
-      <c r="Y28" s="3">
-        <v>13.181</v>
+        <v>160.332</v>
+      </c>
+      <c r="W28" s="4">
+        <v>48.4581</v>
+      </c>
+      <c r="X28" s="2">
+        <v>14.2073</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>14.3081</v>
       </c>
       <c r="Z28" s="1">
-        <v>23.1273</v>
+        <v>23.1934</v>
       </c>
       <c r="AA28" s="1">
-        <v>22.9276</v>
+        <v>22.9713</v>
       </c>
       <c r="AB28" s="1">
-        <v>-2649.44</v>
+        <v>120.886</v>
       </c>
       <c r="AC28" s="1">
-        <v>-2824.94</v>
-      </c>
-      <c r="AD28" s="3">
-        <v>17.4571</v>
-      </c>
-      <c r="AE28" s="4">
-        <v>227.627</v>
-      </c>
-      <c r="AF28" s="4">
-        <v>226.993</v>
+        <v>116.114</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>49.5143</v>
+      </c>
+      <c r="AE28" s="2">
+        <v>11.8254</v>
+      </c>
+      <c r="AF28" s="2">
+        <v>11.5005</v>
       </c>
       <c r="AG28" s="1">
-        <v>1.62823</v>
+        <v>20.7276</v>
       </c>
       <c r="AH28" s="1">
-        <v>1.63281</v>
+        <v>20.824</v>
       </c>
       <c r="AI28" s="1">
-        <v>-2760.47</v>
+        <v>121.271</v>
       </c>
       <c r="AJ28" s="1">
-        <v>-3175.85</v>
-      </c>
-      <c r="AK28" s="3">
-        <v>1.85944</v>
-      </c>
-      <c r="AL28" s="4">
-        <v>228.304</v>
-      </c>
-      <c r="AM28" s="4">
-        <v>227.684</v>
+        <v>116.501</v>
+      </c>
+      <c r="AK28" s="1">
+        <v>49.5142</v>
+      </c>
+      <c r="AL28" s="2">
+        <v>11.8385</v>
+      </c>
+      <c r="AM28" s="2">
+        <v>11.5132</v>
       </c>
       <c r="AN28" s="1">
-        <v>1.61726</v>
+        <v>20.7209</v>
       </c>
       <c r="AO28" s="1">
-        <v>1.62256</v>
+        <v>20.8179</v>
       </c>
       <c r="AP28" s="1">
-        <v>50.6089</v>
+        <v>53.8515</v>
       </c>
       <c r="AQ28" s="1">
-        <v>51.0594</v>
+        <v>54.2953</v>
       </c>
       <c r="AR28" s="1">
-        <v>50.0054</v>
-      </c>
-      <c r="AS28" s="3">
-        <v>3.56716</v>
-      </c>
-      <c r="AT28" s="3">
-        <v>3.42868</v>
+        <v>50.0055</v>
+      </c>
+      <c r="AS28" s="2">
+        <v>3.56691</v>
+      </c>
+      <c r="AT28" s="2">
+        <v>3.42915</v>
       </c>
       <c r="AU28" s="1">
-        <v>65.09820000000001</v>
+        <v>65.117</v>
       </c>
       <c r="AV28" s="1">
-        <v>67.0227</v>
+        <v>66.9983</v>
       </c>
       <c r="AW28" s="1">
-        <v>58.276</v>
+        <v>62.6675</v>
       </c>
       <c r="AX28" s="1">
-        <v>58.59780000000001</v>
+        <v>63.19090000000001</v>
       </c>
       <c r="AY28" s="1">
-        <v>49.9179</v>
-      </c>
-      <c r="AZ28" s="3">
-        <v>6.77427</v>
-      </c>
-      <c r="BA28" s="3">
-        <v>5.35704</v>
+        <v>49.9181</v>
+      </c>
+      <c r="AZ28" s="2">
+        <v>6.77488</v>
+      </c>
+      <c r="BA28" s="2">
+        <v>5.40089</v>
       </c>
       <c r="BB28" s="1">
-        <v>36.5353</v>
+        <v>36.5374</v>
       </c>
       <c r="BC28" s="1">
-        <v>45.7573</v>
+        <v>45.7572</v>
       </c>
       <c r="BD28" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="BE28" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="BF28" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="BG28" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="BH28" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="BI28" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="BJ28" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="BK28" s="1">
-        <v>80.6088</v>
+        <v>87.7457</v>
       </c>
       <c r="BL28" s="1">
-        <v>80.63980000000001</v>
+        <v>86.14110000000001</v>
       </c>
       <c r="BM28" s="1">
-        <v>49.747</v>
-      </c>
-      <c r="BN28" s="3">
-        <v>13.6376</v>
-      </c>
-      <c r="BO28" s="3">
-        <v>12.6633</v>
+        <v>49.7475</v>
+      </c>
+      <c r="BN28" s="2">
+        <v>13.6386</v>
+      </c>
+      <c r="BO28" s="2">
+        <v>12.6611</v>
       </c>
       <c r="BP28" s="1">
-        <v>16.6081</v>
+        <v>16.6089</v>
       </c>
       <c r="BQ28" s="1">
-        <v>15.6362</v>
+        <v>15.6365</v>
       </c>
     </row>
     <row r="29" spans="1:69" s="1" customFormat="1">
       <c r="S29" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="T29" s="4">
-        <v>467.744</v>
-      </c>
-      <c r="U29" s="4">
-        <v>456.595</v>
-      </c>
-      <c r="V29" s="4">
-        <v>462.169</v>
-      </c>
-      <c r="W29" s="6">
-        <v>52.1221</v>
-      </c>
-      <c r="X29" s="3">
-        <v>23.3491</v>
-      </c>
-      <c r="Y29" s="3">
-        <v>23.5524</v>
+      <c r="T29" s="1">
+        <v>259.058</v>
+      </c>
+      <c r="U29" s="1">
+        <v>247.877</v>
+      </c>
+      <c r="V29" s="1">
+        <v>253.467</v>
+      </c>
+      <c r="W29" s="1">
+        <v>49.1626</v>
+      </c>
+      <c r="X29" s="2">
+        <v>23.2824</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>23.5076</v>
       </c>
       <c r="Z29" s="1">
-        <v>47.184</v>
+        <v>44.3716</v>
       </c>
       <c r="AA29" s="1">
-        <v>47.8265</v>
-      </c>
-      <c r="AB29" s="4">
-        <v>386.451</v>
-      </c>
-      <c r="AC29" s="4">
-        <v>384.705</v>
-      </c>
-      <c r="AD29" s="4">
-        <v>98.9547</v>
-      </c>
-      <c r="AE29" s="4">
-        <v>248.737</v>
-      </c>
-      <c r="AF29" s="4">
-        <v>248.038</v>
+        <v>44.059</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>178.844</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>178.623</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>50.2128</v>
+      </c>
+      <c r="AE29" s="2">
+        <v>19.5391</v>
+      </c>
+      <c r="AF29" s="2">
+        <v>19.4487</v>
       </c>
       <c r="AG29" s="1">
-        <v>2.17461</v>
+        <v>41.859</v>
       </c>
       <c r="AH29" s="1">
-        <v>2.18068</v>
-      </c>
-      <c r="AI29" s="4">
-        <v>388.714</v>
-      </c>
-      <c r="AJ29" s="4">
-        <v>387.34</v>
-      </c>
-      <c r="AK29" s="4">
-        <v>98.8338</v>
-      </c>
-      <c r="AL29" s="4">
-        <v>250.424</v>
-      </c>
-      <c r="AM29" s="4">
-        <v>249.605</v>
+        <v>43.0416</v>
+      </c>
+      <c r="AI29" s="1">
+        <v>179.227</v>
+      </c>
+      <c r="AJ29" s="1">
+        <v>179.006</v>
+      </c>
+      <c r="AK29" s="1">
+        <v>50.2128</v>
+      </c>
+      <c r="AL29" s="2">
+        <v>19.5454</v>
+      </c>
+      <c r="AM29" s="2">
+        <v>19.4544</v>
       </c>
       <c r="AN29" s="1">
-        <v>2.16816</v>
+        <v>41.8127</v>
       </c>
       <c r="AO29" s="1">
-        <v>2.17407</v>
+        <v>42.9942</v>
       </c>
       <c r="AP29" s="1">
-        <v>72.8715</v>
+        <v>72.8789</v>
       </c>
       <c r="AQ29" s="1">
-        <v>73.3095</v>
+        <v>73.3121</v>
       </c>
       <c r="AR29" s="1">
-        <v>50.0976</v>
-      </c>
-      <c r="AS29" s="3">
-        <v>6.22137</v>
-      </c>
-      <c r="AT29" s="3">
-        <v>6.042730000000001</v>
+        <v>50.0989</v>
+      </c>
+      <c r="AS29" s="2">
+        <v>6.21957</v>
+      </c>
+      <c r="AT29" s="2">
+        <v>6.04493</v>
       </c>
       <c r="AU29" s="1">
-        <v>132.543</v>
+        <v>132.552</v>
       </c>
       <c r="AV29" s="1">
-        <v>137.895</v>
+        <v>137.877</v>
       </c>
       <c r="AW29" s="1">
-        <v>87.35350000000001</v>
+        <v>87.37049999999999</v>
       </c>
       <c r="AX29" s="1">
-        <v>87.3104</v>
+        <v>87.32640000000001</v>
       </c>
       <c r="AY29" s="1">
         <v>50.1127</v>
       </c>
-      <c r="AZ29" s="3">
-        <v>11.0852</v>
-      </c>
-      <c r="BA29" s="3">
+      <c r="AZ29" s="2">
+        <v>11.0845</v>
+      </c>
+      <c r="BA29" s="2">
         <v>8.85106</v>
       </c>
       <c r="BB29" s="1">
-        <v>69.79349999999999</v>
+        <v>69.7872</v>
       </c>
       <c r="BC29" s="1">
-        <v>88.2577</v>
+        <v>87.5412</v>
       </c>
       <c r="BD29" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="BE29" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="BF29" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="BG29" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="BH29" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="BI29" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="BJ29" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="BK29" s="1">
-        <v>127.382</v>
+        <v>127.397</v>
       </c>
       <c r="BL29" s="1">
-        <v>129.6</v>
+        <v>129.615</v>
       </c>
       <c r="BM29" s="1">
-        <v>50.5401</v>
-      </c>
-      <c r="BN29" s="3">
-        <v>25.0119</v>
-      </c>
-      <c r="BO29" s="3">
-        <v>25.9014</v>
+        <v>50.54</v>
+      </c>
+      <c r="BN29" s="2">
+        <v>25.0132</v>
+      </c>
+      <c r="BO29" s="2">
+        <v>25.901</v>
       </c>
       <c r="BP29" s="1">
-        <v>34.5306</v>
+        <v>34.5307</v>
       </c>
       <c r="BQ29" s="1">
-        <v>39.0894</v>
+        <v>39.0962</v>
       </c>
     </row>
     <row r="30" spans="1:69" s="1" customFormat="1">
@@ -7074,154 +7060,154 @@
         <v>148</v>
       </c>
       <c r="T34" s="1">
-        <v>254.3013200000001</v>
+        <v>200.94425</v>
       </c>
       <c r="U34" s="1">
-        <v>224.3941200000001</v>
+        <v>190.0020416666667</v>
       </c>
       <c r="V34" s="1">
-        <v>239.3477600000001</v>
+        <v>195.4730833333333</v>
       </c>
       <c r="W34" s="1">
-        <v>47.04286400000001</v>
+        <v>48.90566666666666</v>
       </c>
       <c r="X34" s="1">
-        <v>18.037004</v>
+        <v>18.18459583333333</v>
       </c>
       <c r="Y34" s="1">
-        <v>17.92709199999999</v>
+        <v>18.09204166666666</v>
       </c>
       <c r="Z34" s="1">
-        <v>33.3805</v>
+        <v>32.89010833333334</v>
       </c>
       <c r="AA34" s="1">
-        <v>33.562532</v>
+        <v>33.02664166666667</v>
       </c>
       <c r="AB34" s="1">
-        <v>-201.7002000000001</v>
+        <v>142.1968333333333</v>
       </c>
       <c r="AC34" s="1">
-        <v>-251.27172</v>
+        <v>140.131125</v>
       </c>
       <c r="AD34" s="1">
-        <v>50.09816</v>
+        <v>49.7934375</v>
       </c>
       <c r="AE34" s="1">
-        <v>236.6167600000001</v>
+        <v>15.42323333333333</v>
       </c>
       <c r="AF34" s="1">
-        <v>235.71212</v>
+        <v>15.1880875</v>
       </c>
       <c r="AG34" s="1">
-        <v>1.9055856</v>
+        <v>29.76625416666667</v>
       </c>
       <c r="AH34" s="1">
-        <v>1.9127408</v>
+        <v>30.2688375</v>
       </c>
       <c r="AI34" s="1">
-        <v>-1180.0394</v>
+        <v>142.5815</v>
       </c>
       <c r="AJ34" s="1">
-        <v>-1364.79184</v>
+        <v>140.516125</v>
       </c>
       <c r="AK34" s="1">
-        <v>56.15588519999999</v>
+        <v>49.793475</v>
       </c>
       <c r="AL34" s="1">
-        <v>237.4964</v>
+        <v>15.43210833333333</v>
       </c>
       <c r="AM34" s="1">
-        <v>236.52392</v>
+        <v>15.19690833333333</v>
       </c>
       <c r="AN34" s="1">
-        <v>1.8988016</v>
+        <v>29.74733333333334</v>
       </c>
       <c r="AO34" s="1">
-        <v>1.9063796</v>
+        <v>30.24934166666667</v>
       </c>
       <c r="AP34" s="1">
-        <v>62.093188</v>
+        <v>62.57956250000001</v>
       </c>
       <c r="AQ34" s="1">
-        <v>62.52488000000001</v>
+        <v>63.00992083333333</v>
       </c>
       <c r="AR34" s="1">
-        <v>50.04316799999999</v>
+        <v>50.04302916666666</v>
       </c>
       <c r="AS34" s="1">
-        <v>4.805388000000001</v>
+        <v>4.838740416666668</v>
       </c>
       <c r="AT34" s="1">
-        <v>4.636600400000001</v>
+        <v>4.671552916666666</v>
       </c>
       <c r="AU34" s="1">
-        <v>93.57008</v>
+        <v>92.55433749999997</v>
       </c>
       <c r="AV34" s="1">
-        <v>97.10637999999999</v>
+        <v>95.96554166666668</v>
       </c>
       <c r="AW34" s="1">
-        <v>72.55411199999999</v>
+        <v>73.15662916666668</v>
       </c>
       <c r="AX34" s="1">
-        <v>72.74117199999999</v>
+        <v>73.33746666666666</v>
       </c>
       <c r="AY34" s="1">
-        <v>50.018704</v>
+        <v>50.01805833333333</v>
       </c>
       <c r="AZ34" s="1">
-        <v>8.7423796</v>
+        <v>8.821843749999999</v>
       </c>
       <c r="BA34" s="1">
-        <v>6.9399012</v>
+        <v>7.005836666666667</v>
       </c>
       <c r="BB34" s="1">
-        <v>51.75512000000001</v>
+        <v>51.02917916666667</v>
       </c>
       <c r="BC34" s="1">
-        <v>65.057244</v>
+        <v>64.09115833333333</v>
       </c>
       <c r="BD34" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="BE34" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="BF34" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="BG34" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="BH34" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="BI34" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="BJ34" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="BK34" s="1">
-        <v>101.856904</v>
+        <v>102.7496083333333</v>
       </c>
       <c r="BL34" s="1">
-        <v>102.586168</v>
+        <v>103.5071208333333</v>
       </c>
       <c r="BM34" s="1">
-        <v>50.07293599999999</v>
+        <v>50.07573333333332</v>
       </c>
       <c r="BN34" s="1">
-        <v>18.9636</v>
+        <v>19.10983333333333</v>
       </c>
       <c r="BO34" s="1">
-        <v>18.141808</v>
+        <v>18.32309166666667</v>
       </c>
       <c r="BP34" s="1">
-        <v>24.905132</v>
+        <v>24.60819583333333</v>
       </c>
       <c r="BQ34" s="1">
-        <v>26.16123200000001</v>
+        <v>25.75471666666666</v>
       </c>
     </row>
     <row r="35" spans="19:69" s="1" customFormat="1">
@@ -7229,154 +7215,154 @@
         <v>149</v>
       </c>
       <c r="T35" s="1">
-        <v>83.17736450584138</v>
+        <v>23.18710699981422</v>
       </c>
       <c r="U35" s="1">
-        <v>69.93659189198169</v>
+        <v>23.16221499641022</v>
       </c>
       <c r="V35" s="1">
-        <v>73.68109098067428</v>
+        <v>23.15866032739636</v>
       </c>
       <c r="W35" s="1">
-        <v>4.321503045458143</v>
+        <v>0.1714696247800819</v>
       </c>
       <c r="X35" s="1">
-        <v>2.704298655027584</v>
+        <v>2.57361468115683</v>
       </c>
       <c r="Y35" s="1">
-        <v>2.626114285238935</v>
+        <v>2.483276328246729</v>
       </c>
       <c r="Z35" s="1">
-        <v>6.484256690230577</v>
+        <v>5.975956699483123</v>
       </c>
       <c r="AA35" s="1">
-        <v>6.496613208909394</v>
+        <v>5.935051359221521</v>
       </c>
       <c r="AB35" s="1">
-        <v>877.0001141142914</v>
+        <v>15.1737583173129</v>
       </c>
       <c r="AC35" s="1">
-        <v>953.5623227171476</v>
+        <v>15.93347714539135</v>
       </c>
       <c r="AD35" s="1">
-        <v>16.79138543179806</v>
+        <v>0.1832936755876123</v>
       </c>
       <c r="AE35" s="1">
-        <v>6.001401531509119</v>
+        <v>2.073424272322371</v>
       </c>
       <c r="AF35" s="1">
-        <v>5.69870911221129</v>
+        <v>2.097119225531479</v>
       </c>
       <c r="AG35" s="1">
-        <v>0.2160068991505595</v>
+        <v>5.912314801819671</v>
       </c>
       <c r="AH35" s="1">
-        <v>0.2159950671273768</v>
+        <v>6.148595166025901</v>
       </c>
       <c r="AI35" s="1">
-        <v>1153.215631124449</v>
+        <v>15.17328021007103</v>
       </c>
       <c r="AJ35" s="1">
-        <v>1307.119356687695</v>
+        <v>15.93274477899864</v>
       </c>
       <c r="AK35" s="1">
-        <v>25.33112395580285</v>
+        <v>0.1832543729582824</v>
       </c>
       <c r="AL35" s="1">
-        <v>6.340920784870282</v>
+        <v>2.071634704751433</v>
       </c>
       <c r="AM35" s="1">
-        <v>5.956301637224226</v>
+        <v>2.095308706156977</v>
       </c>
       <c r="AN35" s="1">
-        <v>0.2169807524123741</v>
+        <v>5.903340579399845</v>
       </c>
       <c r="AO35" s="1">
-        <v>0.2165755511682702</v>
+        <v>6.139083165391819</v>
       </c>
       <c r="AP35" s="1">
-        <v>5.946255167099372</v>
+        <v>5.578666795690863</v>
       </c>
       <c r="AQ35" s="1">
-        <v>5.945491032707055</v>
+        <v>5.579466545884946</v>
       </c>
       <c r="AR35" s="1">
-        <v>0.02209962388820202</v>
+        <v>0.02266154009121103</v>
       </c>
       <c r="AS35" s="1">
-        <v>0.6949110777128251</v>
+        <v>0.6899035040706729</v>
       </c>
       <c r="AT35" s="1">
-        <v>0.6857068207184759</v>
+        <v>0.677775450391937</v>
       </c>
       <c r="AU35" s="1">
-        <v>16.65762441122983</v>
+        <v>16.23737541830094</v>
       </c>
       <c r="AV35" s="1">
-        <v>17.74977259444188</v>
+        <v>17.19316959143748</v>
       </c>
       <c r="AW35" s="1">
-        <v>7.354102947406707</v>
+        <v>6.892303854933605</v>
       </c>
       <c r="AX35" s="1">
-        <v>7.31065835806981</v>
+        <v>6.856098226862629</v>
       </c>
       <c r="AY35" s="1">
-        <v>0.05927448341402842</v>
+        <v>0.0605427666796142</v>
       </c>
       <c r="AZ35" s="1">
-        <v>1.40300217929262</v>
+        <v>1.375564959185899</v>
       </c>
       <c r="BA35" s="1">
-        <v>1.046886468726461</v>
+        <v>1.016471448917228</v>
       </c>
       <c r="BB35" s="1">
-        <v>10.10837112508242</v>
+        <v>9.656851359569329</v>
       </c>
       <c r="BC35" s="1">
-        <v>12.50769761818953</v>
+        <v>11.81667979481817</v>
       </c>
       <c r="BD35" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="BE35" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="BF35" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="BG35" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="BH35" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="BI35" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="BJ35" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="BK35" s="1">
-        <v>11.13270679579697</v>
+        <v>10.46508346824958</v>
       </c>
       <c r="BL35" s="1">
-        <v>11.7815908771174</v>
+        <v>11.12224825728366</v>
       </c>
       <c r="BM35" s="1">
-        <v>0.2192056329203252</v>
+        <v>0.223269546861088</v>
       </c>
       <c r="BN35" s="1">
-        <v>4.262565866517489</v>
+        <v>4.288413240316542</v>
       </c>
       <c r="BO35" s="1">
-        <v>4.014066618273294</v>
+        <v>3.99420793367478</v>
       </c>
       <c r="BP35" s="1">
-        <v>5.736546955981098</v>
+        <v>5.663858412004369</v>
       </c>
       <c r="BQ35" s="1">
-        <v>6.712998608772089</v>
+        <v>6.54152071079212</v>
       </c>
     </row>
     <row r="36" spans="19:69" s="1" customFormat="1">
@@ -7384,154 +7370,154 @@
         <v>150</v>
       </c>
       <c r="T36" s="1">
-        <v>32.70819219728838</v>
+        <v>11.53907464374533</v>
       </c>
       <c r="U36" s="1">
-        <v>31.16685583917335</v>
+        <v>12.19050847729587</v>
       </c>
       <c r="V36" s="1">
-        <v>30.78411553994667</v>
+        <v>11.84749323665434</v>
       </c>
       <c r="W36" s="1">
-        <v>9.186309416574089</v>
+        <v>0.3506129994071892</v>
       </c>
       <c r="X36" s="1">
-        <v>14.99305901926719</v>
+        <v>14.15271862374448</v>
       </c>
       <c r="Y36" s="1">
-        <v>14.64885819316895</v>
+        <v>13.72579377164488</v>
       </c>
       <c r="Z36" s="1">
-        <v>19.42528329482955</v>
+        <v>18.16946493127429</v>
       </c>
       <c r="AA36" s="1">
-        <v>19.35674343315156</v>
+        <v>17.97049611983917</v>
       </c>
       <c r="AB36" s="1">
-        <v>434.8037900380323</v>
+        <v>10.67095374883845</v>
       </c>
       <c r="AC36" s="1">
-        <v>379.494486175025</v>
+        <v>11.37040550084169</v>
       </c>
       <c r="AD36" s="1">
-        <v>33.51697034741007</v>
+        <v>0.3681080977540711</v>
       </c>
       <c r="AE36" s="1">
-        <v>2.536338309893652</v>
+        <v>13.44351231360289</v>
       </c>
       <c r="AF36" s="1">
-        <v>2.417656381950699</v>
+        <v>13.80765830807519</v>
       </c>
       <c r="AG36" s="1">
-        <v>11.33546029895269</v>
+        <v>19.86247503201292</v>
       </c>
       <c r="AH36" s="1">
-        <v>11.29243790519744</v>
+        <v>20.31328479670189</v>
       </c>
       <c r="AI36" s="1">
-        <v>97.72687514708821</v>
+        <v>10.6418295571803</v>
       </c>
       <c r="AJ36" s="1">
-        <v>95.77426523063731</v>
+        <v>11.33873053999933</v>
       </c>
       <c r="AK36" s="1">
-        <v>45.10858277023982</v>
+        <v>0.3680288892435855</v>
       </c>
       <c r="AL36" s="1">
-        <v>2.669901853194525</v>
+        <v>13.42418456379485</v>
       </c>
       <c r="AM36" s="1">
-        <v>2.518266075255402</v>
+        <v>13.78773011061116</v>
       </c>
       <c r="AN36" s="1">
-        <v>11.42724718645561</v>
+        <v>19.84494042961781</v>
       </c>
       <c r="AO36" s="1">
-        <v>11.36056801952088</v>
+        <v>20.29493148327521</v>
       </c>
       <c r="AP36" s="1">
-        <v>9.576340591659381</v>
+        <v>8.914518690811976</v>
       </c>
       <c r="AQ36" s="1">
-        <v>9.509000309488087</v>
+        <v>8.854901691819478</v>
       </c>
       <c r="AR36" s="1">
-        <v>0.0441611208311233</v>
+        <v>0.04528410943257955</v>
       </c>
       <c r="AS36" s="1">
-        <v>14.46108155497173</v>
+        <v>14.25791517342723</v>
       </c>
       <c r="AT36" s="1">
-        <v>14.78899973175337</v>
+        <v>14.50856840289323</v>
       </c>
       <c r="AU36" s="1">
-        <v>17.80229792603557</v>
+        <v>17.54361368347642</v>
       </c>
       <c r="AV36" s="1">
-        <v>18.27868837705811</v>
+        <v>17.91598243790196</v>
       </c>
       <c r="AW36" s="1">
-        <v>10.13602502282256</v>
+        <v>9.421297746280027</v>
       </c>
       <c r="AX36" s="1">
-        <v>10.05023449178109</v>
+        <v>9.34869792820218</v>
       </c>
       <c r="AY36" s="1">
-        <v>0.1185046366135924</v>
+        <v>0.1210418170896229</v>
       </c>
       <c r="AZ36" s="1">
-        <v>16.04828711959179</v>
+        <v>15.59271506238023</v>
       </c>
       <c r="BA36" s="1">
-        <v>15.08503418934064</v>
+        <v>14.50892302062273</v>
       </c>
       <c r="BB36" s="1">
-        <v>19.53115194222797</v>
+        <v>18.92417537822632</v>
       </c>
       <c r="BC36" s="1">
-        <v>19.22568010749046</v>
+        <v>18.43730102888841</v>
       </c>
       <c r="BD36" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="BE36" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="BF36" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="BG36" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="BH36" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="BI36" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="BJ36" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="BK36" s="1">
-        <v>10.9297517974795</v>
+        <v>10.18503489988931</v>
       </c>
       <c r="BL36" s="1">
-        <v>11.48458033554524</v>
+        <v>10.74539429532838</v>
       </c>
       <c r="BM36" s="1">
-        <v>0.437772678079682</v>
+        <v>0.4458637587489244</v>
       </c>
       <c r="BN36" s="1">
-        <v>22.47761957918058</v>
+        <v>22.44087201344793</v>
       </c>
       <c r="BO36" s="1">
-        <v>22.12605611454654</v>
+        <v>21.79876631267984</v>
       </c>
       <c r="BP36" s="1">
-        <v>23.03359386322906</v>
+        <v>23.01614653249923</v>
       </c>
       <c r="BQ36" s="1">
-        <v>25.66010120919416</v>
+        <v>25.39931149488652</v>
       </c>
     </row>
     <row r="37" spans="19:69" s="1" customFormat="1"/>
